--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -473,13 +473,9 @@
         <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>10</v>
       </c>
@@ -489,21 +485,17 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18226.55942252565</v>
+        <v>17296.7850293634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>10</v>
       </c>
@@ -513,15 +505,15 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18273.97873787522</v>
+        <v>17296.93436727595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
@@ -533,21 +525,17 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17411.73630585072</v>
+        <v>17297.08370732684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>10</v>
       </c>
@@ -557,21 +545,17 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18215.22739126499</v>
+        <v>17297.23304952228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>10</v>
       </c>
@@ -581,15 +565,15 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18254.48724514308</v>
+        <v>17297.38239386284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
@@ -601,21 +585,17 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17387.36400883998</v>
+        <v>17297.53174034928</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>10</v>
       </c>
@@ -625,21 +605,17 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18198.41626861523</v>
+        <v>17297.68108896466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>10</v>
       </c>
@@ -649,15 +625,15 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18222.99624211656</v>
+        <v>17297.83043974045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -669,21 +645,17 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17360.40799450287</v>
+        <v>17297.97979264065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -693,21 +665,17 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18189.35620922613</v>
+        <v>17298.12914768318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>10</v>
       </c>
@@ -717,15 +685,15 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18163.10920487389</v>
+        <v>17298.2785048918</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="B13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
@@ -737,21 +705,17 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17330.40881316781</v>
+        <v>17298.42786421882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>10</v>
       </c>
@@ -761,21 +725,17 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>137216270.2701026</v>
+        <v>17298.577225688</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>10</v>
       </c>
@@ -785,12 +745,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>563245.2055197963</v>
+        <v>17298.72658933087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -805,21 +765,17 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17296.7850293634</v>
+        <v>17298.87595508421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>10</v>
       </c>
@@ -829,21 +785,17 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18248.95102840231</v>
+        <v>17299.02532297954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>10</v>
       </c>
@@ -853,15 +805,15 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18310.0692724111</v>
+        <v>17299.17469301681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
@@ -873,21 +825,17 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17489.91360470834</v>
+        <v>17299.32406523784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>10</v>
       </c>
@@ -897,21 +845,17 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18240.80573125137</v>
+        <v>17299.47343955882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>10</v>
       </c>
@@ -921,15 +865,15 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18297.08745440572</v>
+        <v>17299.62281602157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
@@ -941,21 +885,17 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>17454.24275590546</v>
+        <v>17330.40881316781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B23" t="n">
         <v>0.5</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>10</v>
       </c>
@@ -965,7 +905,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18227.31415077542</v>
+        <v>17360.40799450287</v>
       </c>
     </row>
     <row r="24">
@@ -973,13 +913,9 @@
         <v>0.2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>10</v>
       </c>
@@ -989,15 +925,15 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18274.27400768919</v>
+        <v>17360.54023647271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
@@ -1009,21 +945,17 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>17411.85505024826</v>
+        <v>17387.36400883998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B26" t="n">
         <v>0.75</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>10</v>
       </c>
@@ -1033,21 +965,17 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18199.85020389878</v>
+        <v>17387.61424979216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>10</v>
       </c>
@@ -1057,7 +985,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18223.48555696641</v>
+        <v>17411.73630585072</v>
       </c>
     </row>
     <row r="28">
@@ -1065,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="B28" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
@@ -1077,21 +1005,17 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17360.54023647271</v>
+        <v>17411.85505024826</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>10</v>
       </c>
@@ -1101,21 +1025,17 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>114721805.0188131</v>
+        <v>17412.09254304609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>10</v>
       </c>
@@ -1125,7 +1045,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>506430.6064558904</v>
+        <v>17434.34545188022</v>
       </c>
     </row>
     <row r="31">
@@ -1133,7 +1053,7 @@
         <v>0.2</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
@@ -1145,7 +1065,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>17296.93436727595</v>
+        <v>17454.24275590546</v>
       </c>
     </row>
     <row r="32">
@@ -1153,13 +1073,9 @@
         <v>0.3</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>10</v>
       </c>
@@ -1169,21 +1085,17 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18259.14474557476</v>
+        <v>17454.35055957171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>10</v>
       </c>
@@ -1193,15 +1105,15 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18324.43016789419</v>
+        <v>17454.67397713381</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
@@ -1213,21 +1125,17 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17546.83396705452</v>
+        <v>17473.32563603019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>10</v>
       </c>
@@ -1237,21 +1145,17 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18252.34876403692</v>
+        <v>17489.91360470834</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>10</v>
       </c>
@@ -1261,15 +1165,15 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>18314.81695507234</v>
+        <v>17490.11109608942</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
@@ -1281,7 +1185,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>17505.81915250707</v>
+        <v>17490.50608981562</v>
       </c>
     </row>
     <row r="38">
@@ -1289,13 +1193,9 @@
         <v>0.3</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>10</v>
       </c>
@@ -1305,21 +1205,17 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>18241.39913959766</v>
+        <v>17505.81915250707</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>10</v>
       </c>
@@ -1329,12 +1225,12 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>18297.29684278233</v>
+        <v>17506.3878179866</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="B40" t="n">
         <v>0.5</v>
@@ -1349,21 +1245,17 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17454.35055957171</v>
+        <v>17520.66108442767</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0.75</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
         <v>10</v>
       </c>
@@ -1373,21 +1265,17 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>18216.65874905248</v>
+        <v>17521.11668795555</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="B42" t="n">
         <v>0.75</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>10</v>
       </c>
@@ -1397,7 +1285,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>18255.21879020919</v>
+        <v>17534.81699923541</v>
       </c>
     </row>
     <row r="43">
@@ -1405,7 +1293,7 @@
         <v>0.3</v>
       </c>
       <c r="B43" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
@@ -1417,21 +1305,17 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17387.61424979216</v>
+        <v>17546.83396705452</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>10</v>
       </c>
@@ -1441,21 +1325,17 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>82864987.81373864</v>
+        <v>17546.91856855063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>10</v>
       </c>
@@ -1465,15 +1345,15 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>449624.1742420081</v>
+        <v>17547.08777354011</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
@@ -1485,21 +1365,17 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17297.08370732684</v>
+        <v>17547.59540449177</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
         <v>10</v>
       </c>
@@ -1509,21 +1385,17 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>18265.67348834406</v>
+        <v>17559.54399235168</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>10</v>
       </c>
@@ -1533,15 +1405,15 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>18332.15030014997</v>
+        <v>17570.18992810898</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
@@ -1553,21 +1425,17 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17590.2727864764</v>
+        <v>17570.74273593138</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B50" t="n">
         <v>0.25</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>10</v>
       </c>
@@ -1577,21 +1445,17 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>18259.43549326478</v>
+        <v>17580.49713814427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="B51" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>10</v>
       </c>
@@ -1601,7 +1465,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>18324.54429097974</v>
+        <v>17581.26145634815</v>
       </c>
     </row>
     <row r="52">
@@ -1609,7 +1473,7 @@
         <v>0.4</v>
       </c>
       <c r="B52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
@@ -1621,21 +1485,17 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17546.91856855063</v>
+        <v>17590.2727864764</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B53" t="n">
         <v>0.5</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
         <v>10</v>
       </c>
@@ -1645,21 +1505,17 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>18249.66565978767</v>
+        <v>17590.56898646434</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
         <v>10</v>
       </c>
@@ -1669,15 +1525,15 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>18310.39692539543</v>
+        <v>17591.16141079948</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
@@ -1689,21 +1545,17 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>17490.11109608942</v>
+        <v>17600.49658756436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
         <v>10</v>
       </c>
@@ -1713,21 +1565,17 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>18228.05307910786</v>
+        <v>17608.47816071591</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="B57" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>10</v>
       </c>
@@ -1737,12 +1585,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>18274.85947171596</v>
+        <v>17608.68730684423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="B58" t="n">
         <v>0.75</v>
@@ -1757,21 +1605,17 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>17412.09254304609</v>
+        <v>17609.31476946755</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
         <v>10</v>
       </c>
@@ -1781,21 +1625,17 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>43834713.87996787</v>
+        <v>17617.6584137202</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
         <v>10</v>
       </c>
@@ -1805,15 +1645,15 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>392829.4518790793</v>
+        <v>17624.57737293608</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
@@ -1825,21 +1665,17 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>17297.23304952228</v>
+        <v>17624.90670000231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>10</v>
       </c>
@@ -1849,21 +1685,17 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>18270.5645837268</v>
+        <v>17625.56538412332</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>10</v>
       </c>
@@ -1873,15 +1705,15 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>18336.97169231531</v>
+        <v>17632.1721654571</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B64" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
@@ -1893,21 +1725,17 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>17624.57737293608</v>
+        <v>17639.51468560154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B65" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
         <v>10</v>
       </c>
@@ -1917,21 +1745,17 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>18264.54320548353</v>
+        <v>17652.38688400752</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B66" t="n">
         <v>0.25</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
         <v>10</v>
       </c>
@@ -1941,15 +1765,15 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>18330.69123584505</v>
+        <v>17652.50553627452</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B67" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.25</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
@@ -1961,21 +1785,17 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>17580.49713814427</v>
+        <v>17652.74284470772</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="B68" t="n">
         <v>0.5</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
         <v>10</v>
       </c>
@@ -1985,21 +1805,17 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>18255.39710177031</v>
+        <v>17664.77993529305</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
         <v>10</v>
       </c>
@@ -2009,15 +1825,15 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>18318.85617359881</v>
+        <v>17670.15300685395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
@@ -2029,21 +1845,17 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>17520.66108442767</v>
+        <v>17675.40358865617</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B71" t="n">
         <v>0.5</v>
       </c>
-      <c r="B71" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
         <v>10</v>
       </c>
@@ -2053,21 +1865,17 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>18236.16139477216</v>
+        <v>17675.78144927578</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
         <v>10</v>
       </c>
@@ -2077,15 +1885,15 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>18288.23021513407</v>
+        <v>17685.61841721588</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B73" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.75</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
@@ -2097,21 +1905,17 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17434.34545188022</v>
+        <v>17685.87669733327</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
         <v>10</v>
       </c>
@@ -2121,21 +1925,17 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4809081.658350804</v>
+        <v>17694.77794285718</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B75" t="n">
         <v>0.5</v>
       </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>10</v>
       </c>
@@ -2145,15 +1945,15 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>336052.376509544</v>
+        <v>17695.17414262868</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
@@ -2165,21 +1965,17 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17297.38239386284</v>
+        <v>17699.28601762925</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
         <v>10</v>
       </c>
@@ -2189,21 +1985,17 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>18274.54571788586</v>
+        <v>17703.7654717334</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
         <v>10</v>
       </c>
@@ -2213,15 +2005,15 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>18340.269110388</v>
+        <v>17711.31694983432</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
@@ -2233,21 +2025,17 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>17652.38688400752</v>
+        <v>17711.45421180856</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="B80" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
         <v>10</v>
       </c>
@@ -2257,21 +2045,17 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>18268.57834467362</v>
+        <v>17711.72874091245</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
         <v>10</v>
       </c>
@@ -2281,12 +2065,12 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>18334.92774835813</v>
+        <v>17719.13083498932</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="B82" t="n">
         <v>0.25</v>
@@ -2301,21 +2085,17 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17608.47816071591</v>
+        <v>17722.3584143731</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
         <v>10</v>
       </c>
@@ -2325,21 +2105,17 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>18259.76233105516</v>
+        <v>17725.6041929472</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
         <v>0.5</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
         <v>10</v>
       </c>
@@ -2349,15 +2125,15 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>18324.77077419083</v>
+        <v>17726.02940940937</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
@@ -2369,21 +2145,17 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17547.08777354011</v>
+        <v>17732.18693297853</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="B86" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
         <v>10</v>
       </c>
@@ -2393,21 +2165,17 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>18242.16771834112</v>
+        <v>17738.07255582493</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="B87" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
         <v>10</v>
       </c>
@@ -2417,15 +2185,15 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>18297.92537200781</v>
+        <v>17741.09225082274</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B88" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
@@ -2437,21 +2205,17 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17454.67397713381</v>
+        <v>17749.05014314405</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
         <v>10</v>
       </c>
@@ -2461,21 +2225,17 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>171321.4290138278</v>
+        <v>17749.19919917847</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
         <v>10</v>
       </c>
@@ -2485,15 +2245,15 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>279303.7102243549</v>
+        <v>17756.6109806628</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
@@ -2505,21 +2265,17 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17297.53174034928</v>
+        <v>17758.79030462834</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
         <v>10</v>
       </c>
@@ -2529,21 +2285,17 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>18277.94598765041</v>
+        <v>17763.41367745249</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
         <v>10</v>
       </c>
@@ -2553,15 +2305,15 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>18342.66657232502</v>
+        <v>17767.49185614796</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
@@ -2573,21 +2325,17 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17675.40358865617</v>
+        <v>17769.67967296176</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
         <v>10</v>
       </c>
@@ -2597,21 +2345,17 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>18271.92038181242</v>
+        <v>17775.31305188646</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
         <v>0.25</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
         <v>10</v>
       </c>
@@ -2621,15 +2365,15 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>18338.02481651106</v>
+        <v>17775.47028148094</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
@@ -2641,21 +2385,17 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17632.1721654571</v>
+        <v>17782.38145707463</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
         <v>10</v>
       </c>
@@ -2665,21 +2405,17 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>18263.31684746456</v>
+        <v>17788.80106301765</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
         <v>10</v>
       </c>
@@ -2689,15 +2425,15 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>18329.13922128268</v>
+        <v>17794.65750540496</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
@@ -2709,21 +2445,17 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>17570.18992810898</v>
+        <v>17800.02195207692</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
         <v>10</v>
       </c>
@@ -2733,15 +2465,15 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>18246.82912213905</v>
+        <v>17804.95404075854</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="B102" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2757,17 +2489,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>18305.27944227125</v>
+        <v>18017.7790071838</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="B103" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D103" t="n">
         <v>10</v>
       </c>
@@ -2777,19 +2513,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17473.32563603019</v>
+        <v>18018.66635166216</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2801,12 +2537,12 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>169938.5169973536</v>
+        <v>18019.55393732017</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2825,17 +2561,21 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>222605.1810397785</v>
+        <v>18020.4417641222</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D106" t="n">
         <v>10</v>
       </c>
@@ -2845,19 +2585,19 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>17297.68108896466</v>
+        <v>18021.3298320326</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2869,15 +2609,15 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>18280.93851687921</v>
+        <v>18022.21814101574</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2893,17 +2633,21 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>18344.4882990833</v>
+        <v>18023.10669103595</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D109" t="n">
         <v>10</v>
       </c>
@@ -2913,19 +2657,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>17694.77794285718</v>
+        <v>18023.9954820576</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="B110" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2937,15 +2681,15 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>18274.8219854882</v>
+        <v>18024.88451404504</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2961,17 +2705,21 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>18340.38770323157</v>
+        <v>18025.77378696261</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B112" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C112" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D112" t="n">
         <v>10</v>
       </c>
@@ -2981,15 +2729,15 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>17652.50553627452</v>
+        <v>18163.10920487389</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3005,19 +2753,19 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>18266.31027018488</v>
+        <v>18189.35620922613</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B114" t="n">
         <v>0.5</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3029,17 +2777,21 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>18332.49788153125</v>
+        <v>18198.41626861523</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C115" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D115" t="n">
         <v>10</v>
       </c>
@@ -3049,15 +2801,15 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>17590.56898646434</v>
+        <v>18199.85020389878</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B116" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3073,19 +2825,19 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>18250.54911834757</v>
+        <v>18215.22739126499</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="B117" t="n">
         <v>0.75</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3097,17 +2849,21 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>18311.04992887452</v>
+        <v>18216.65874905248</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B118" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C118" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D118" t="n">
         <v>10</v>
       </c>
@@ -3117,19 +2873,19 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>17490.50608981562</v>
+        <v>18222.99624211656</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -3141,19 +2897,19 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>168555.7354148088</v>
+        <v>18223.48555696641</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3165,17 +2921,21 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>166008.1684728135</v>
+        <v>18226.55942252565</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D121" t="n">
         <v>10</v>
       </c>
@@ -3185,15 +2945,15 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>17297.83043974045</v>
+        <v>18227.31415077542</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3209,19 +2969,19 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>18283.62482539474</v>
+        <v>18228.05307910786</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3233,17 +2993,21 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>18345.9194596913</v>
+        <v>18236.16139477216</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D124" t="n">
         <v>10</v>
       </c>
@@ -3253,15 +3017,15 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>17711.31694983432</v>
+        <v>18240.80573125137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B125" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3277,19 +3041,19 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>18277.40405116642</v>
+        <v>18241.39913959766</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="B126" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -3301,17 +3065,21 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>18342.24983566298</v>
+        <v>18242.16771834112</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="B127" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C127" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D127" t="n">
         <v>10</v>
       </c>
@@ -3321,15 +3089,15 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17670.15300685395</v>
+        <v>18246.82912213905</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3345,19 +3113,19 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>18268.91001677904</v>
+        <v>18248.95102840231</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="B129" t="n">
         <v>0.5</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3369,17 +3137,21 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>18335.16068715934</v>
+        <v>18249.66565978767</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C130" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D130" t="n">
         <v>10</v>
       </c>
@@ -3389,15 +3161,15 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>17608.68730684423</v>
+        <v>18250.54911834757</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B131" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3413,7 +3185,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>18253.65630555377</v>
+        <v>18252.34876403692</v>
       </c>
     </row>
     <row r="132">
@@ -3425,7 +3197,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3437,17 +3209,21 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>18315.69905344152</v>
+        <v>18253.65630555377</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="B133" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C133" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D133" t="n">
         <v>10</v>
       </c>
@@ -3457,19 +3233,19 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>17506.3878179866</v>
+        <v>18254.48724514308</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3481,19 +3257,19 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>167173.0875028677</v>
+        <v>18255.21879020919</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3505,17 +3281,21 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>109669.9533460627</v>
+        <v>18255.39710177031</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D136" t="n">
         <v>10</v>
       </c>
@@ -3525,15 +3305,15 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>17297.97979264065</v>
+        <v>18256.31624239809</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3549,19 +3329,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>18286.06956717871</v>
+        <v>18258.63924464926</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3573,17 +3353,21 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>18347.07350196186</v>
+        <v>18259.14474557476</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D139" t="n">
         <v>10</v>
       </c>
@@ -3593,15 +3377,15 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>17725.6041929472</v>
+        <v>18259.43549326478</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B140" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3617,19 +3401,19 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>18279.74193930622</v>
+        <v>18259.76233105516</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="B141" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3641,17 +3425,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>18343.75515958168</v>
+        <v>18260.70154529766</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="B142" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C142" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D142" t="n">
         <v>10</v>
       </c>
@@ -3661,12 +3449,12 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>17685.61841721588</v>
+        <v>18262.55747787366</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="B143" t="n">
         <v>0.5</v>
@@ -3685,19 +3473,19 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>18271.21967212278</v>
+        <v>18263.31684746456</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3709,17 +3497,21 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>18337.32363332192</v>
+        <v>18264.24680528812</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C145" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D145" t="n">
         <v>10</v>
       </c>
@@ -3729,15 +3521,15 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>17624.90670000231</v>
+        <v>18264.54320548353</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B146" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3753,19 +3545,19 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>18256.31624239809</v>
+        <v>18265.67348834406</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B147" t="n">
         <v>0.75</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3777,17 +3569,21 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>18319.52496885753</v>
+        <v>18265.79929997792</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B148" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C148" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D148" t="n">
         <v>10</v>
       </c>
@@ -3797,15 +3593,15 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>17521.11668795555</v>
+        <v>18266.31027018488</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3821,19 +3617,19 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>165790.5766058592</v>
+        <v>18267.23770300887</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3845,17 +3641,21 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>54400.61321796938</v>
+        <v>18268.57834467362</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D151" t="n">
         <v>10</v>
       </c>
@@ -3865,15 +3665,15 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>17298.12914768318</v>
+        <v>18268.57969227411</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3889,19 +3689,19 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>18288.31668043881</v>
+        <v>18268.91001677904</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3913,17 +3713,21 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>18348.02381292044</v>
+        <v>18269.83922552961</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D154" t="n">
         <v>10</v>
       </c>
@@ -3933,15 +3737,15 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>17738.07255582493</v>
+        <v>18270.5645837268</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="B155" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3957,19 +3761,19 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>18281.88556928988</v>
+        <v>18271.02747782859</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3981,17 +3785,21 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>18344.99726979493</v>
+        <v>18271.21967212278</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="B157" t="n">
         <v>0.25</v>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D157" t="n">
         <v>10</v>
       </c>
@@ -4001,15 +3809,15 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>17699.28601762925</v>
+        <v>18271.92038181242</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4025,7 +3833,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>18273.2952196651</v>
+        <v>18272.15350917778</v>
       </c>
     </row>
     <row r="159">
@@ -4037,7 +3845,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -4049,17 +3857,21 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>18339.11541510508</v>
+        <v>18273.2952196651</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D160" t="n">
         <v>10</v>
       </c>
@@ -4069,19 +3881,19 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>17639.51468560154</v>
+        <v>18273.97873787522</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="B161" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -4093,19 +3905,19 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>18258.63924464926</v>
+        <v>18274.27400768919</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="B162" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -4117,17 +3929,21 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>18322.72866891483</v>
+        <v>18274.54571788586</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="B163" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C163" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D163" t="n">
         <v>10</v>
       </c>
@@ -4137,19 +3953,19 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>17534.81699923541</v>
+        <v>18274.8219854882</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -4161,19 +3977,19 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>164408.2061802643</v>
+        <v>18274.85947171596</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -4185,17 +4001,21 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>18017.7790071838</v>
+        <v>18275.1934274861</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D166" t="n">
         <v>10</v>
       </c>
@@ -4205,15 +4025,15 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>17298.2785048918</v>
+        <v>18276.95037578412</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4229,19 +4049,19 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>18290.39762307413</v>
+        <v>18277.40405116642</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -4253,17 +4073,21 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>18348.81996789005</v>
+        <v>18277.94598765041</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D169" t="n">
         <v>10</v>
       </c>
@@ -4273,12 +4097,12 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>17749.05014314405</v>
+        <v>18278.58968013538</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
         <v>0.25</v>
@@ -4297,19 +4121,19 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>18283.8731091471</v>
+        <v>18279.74193930622</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="B171" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -4321,17 +4145,21 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>18346.03965654993</v>
+        <v>18280.12911682943</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="B172" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D172" t="n">
         <v>10</v>
       </c>
@@ -4341,12 +4169,12 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>17711.45421180856</v>
+        <v>18280.93851687921</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="B173" t="n">
         <v>0.5</v>
@@ -4365,19 +4193,19 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>18275.1934274861</v>
+        <v>18281.58238766852</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -4389,17 +4217,21 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>18340.62403442232</v>
+        <v>18281.88556928988</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="B175" t="n">
         <v>0.5</v>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D175" t="n">
         <v>10</v>
       </c>
@@ -4409,15 +4241,15 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>17652.74284470772</v>
+        <v>18282.96027657456</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="B176" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4433,7 +4265,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>18260.70154529766</v>
+        <v>18283.62482539474</v>
       </c>
     </row>
     <row r="177">
@@ -4441,11 +4273,11 @@
         <v>1.2</v>
       </c>
       <c r="B177" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -4457,17 +4289,21 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>18325.45060493686</v>
+        <v>18283.8731091471</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="B178" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C178" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D178" t="n">
         <v>10</v>
       </c>
@@ -4477,15 +4313,15 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>17547.59540449177</v>
+        <v>18284.27142952925</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4501,19 +4337,19 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>163025.979799444</v>
+        <v>18285.52289385098</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4525,17 +4361,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>18018.66635166216</v>
+        <v>18285.72942936033</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
-      </c>
-      <c r="C181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D181" t="n">
         <v>10</v>
       </c>
@@ -4545,15 +4385,15 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>17298.42786421882</v>
+        <v>18286.06956717871</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4569,19 +4409,19 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>18292.33589182141</v>
+        <v>18286.72049943799</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4593,17 +4433,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>18349.49666381954</v>
+        <v>18287.46943804247</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D184" t="n">
         <v>10</v>
       </c>
@@ -4613,15 +4457,15 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>17758.79030462834</v>
+        <v>18288.23021513407</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="B185" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4637,19 +4481,19 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>18285.72942936033</v>
+        <v>18288.31668043881</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="B186" t="n">
         <v>0.25</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4661,17 +4505,21 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>18346.92690916367</v>
+        <v>18289.10796053638</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B187" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D187" t="n">
         <v>10</v>
       </c>
@@ -4681,15 +4529,15 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>17722.3584143731</v>
+        <v>18290.39762307413</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4705,19 +4553,19 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>18276.95037578412</v>
+        <v>18290.65675000885</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4729,7 +4577,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>18341.91170755635</v>
+        <v>18292.12532896915</v>
       </c>
     </row>
     <row r="190">
@@ -4737,9 +4585,13 @@
         <v>1.3</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D190" t="n">
         <v>10</v>
       </c>
@@ -4749,15 +4601,15 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>17664.77993529305</v>
+        <v>18292.33589182141</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="B191" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4773,19 +4625,19 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>18262.55747787366</v>
+        <v>18293.52155869009</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B192" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4797,17 +4649,21 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>18327.79189542575</v>
+        <v>18294.14965562958</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="B193" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D193" t="n">
         <v>10</v>
       </c>
@@ -4817,15 +4673,15 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>17559.54399235168</v>
+        <v>18294.85203506276</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4841,19 +4697,19 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>161643.9011586036</v>
+        <v>18295.85336953061</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4865,17 +4721,21 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>18019.55393732017</v>
+        <v>18296.12237051153</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D196" t="n">
         <v>10</v>
       </c>
@@ -4885,19 +4745,19 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>17298.577225688</v>
+        <v>18297.08745440572</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4909,19 +4769,19 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>18294.14965562958</v>
+        <v>18297.29684278233</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4933,17 +4793,21 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>18350.07891143717</v>
+        <v>18297.45880732523</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D199" t="n">
         <v>10</v>
       </c>
@@ -4953,15 +4817,15 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>17767.49185614796</v>
+        <v>18297.92537200781</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="B200" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4977,19 +4841,19 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>18287.46943804247</v>
+        <v>18298.97574762487</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="B201" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5001,17 +4865,21 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>18347.69126261474</v>
+        <v>18300.41244487202</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="B202" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D202" t="n">
         <v>10</v>
       </c>
@@ -5021,15 +4889,15 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>17732.18693297853</v>
+        <v>18301.7759623079</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5045,15 +4913,15 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>18278.58968013538</v>
+        <v>18303.07241354962</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5069,17 +4937,21 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>18343.02366591297</v>
+        <v>18305.27944227125</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D205" t="n">
         <v>10</v>
       </c>
@@ -5089,19 +4961,19 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>17675.78144927578</v>
+        <v>18310.0692724111</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="B206" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -5113,12 +4985,12 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>18264.24680528812</v>
+        <v>18310.39692539543</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="B207" t="n">
         <v>0.75</v>
@@ -5137,17 +5009,21 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>18329.82719947524</v>
+        <v>18311.04992887452</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="B208" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C208" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D208" t="n">
         <v>10</v>
       </c>
@@ -5157,19 +5033,19 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>17570.74273593138</v>
+        <v>18314.81695507234</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5181,15 +5057,15 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>160261.974080015</v>
+        <v>18315.69905344152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5205,17 +5081,21 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>18020.4417641222</v>
+        <v>18318.85617359881</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
-      </c>
-      <c r="C211" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D211" t="n">
         <v>10</v>
       </c>
@@ -5225,19 +5105,19 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>17298.72658933087</v>
+        <v>18319.52496885753</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -5249,12 +5129,12 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>18295.85336953061</v>
+        <v>18322.72866891483</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -5273,17 +5153,21 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>18350.58519490086</v>
+        <v>18324.43016789419</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
-      </c>
-      <c r="C214" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D214" t="n">
         <v>10</v>
       </c>
@@ -5293,19 +5177,19 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>17775.31305188646</v>
+        <v>18324.54429097974</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B215" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -5317,15 +5201,15 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>18289.10796053638</v>
+        <v>18324.77077419083</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="B216" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5341,17 +5225,21 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>18348.35659930198</v>
+        <v>18325.45060493686</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="B217" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C217" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D217" t="n">
         <v>10</v>
       </c>
@@ -5361,19 +5249,19 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>17741.09225082274</v>
+        <v>18327.79189542575</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="B218" t="n">
         <v>0.5</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -5385,15 +5273,15 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>18280.12911682943</v>
+        <v>18329.13922128268</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5409,17 +5297,21 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>18343.99358228013</v>
+        <v>18329.82719947524</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C220" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D220" t="n">
         <v>10</v>
       </c>
@@ -5429,7 +5321,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>17685.87669733327</v>
+        <v>18330.69123584505</v>
       </c>
     </row>
     <row r="221">
@@ -5441,7 +5333,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -5453,15 +5345,15 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>18265.79929997792</v>
+        <v>18331.60427165538</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="B222" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5477,17 +5369,21 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>18331.60427165538</v>
+        <v>18332.15030014997</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="B223" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C223" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D223" t="n">
         <v>10</v>
       </c>
@@ -5497,19 +5393,19 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>17581.26145634815</v>
+        <v>18332.49788153125</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -5521,15 +5417,15 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>158880.2025185068</v>
+        <v>18333.16555526706</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5545,17 +5441,21 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>18021.3298320326</v>
+        <v>18334.55634278216</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
-      </c>
-      <c r="C226" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D226" t="n">
         <v>10</v>
       </c>
@@ -5565,19 +5465,19 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>17298.87595508421</v>
+        <v>18334.92774835813</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -5589,15 +5489,15 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>18297.45880732523</v>
+        <v>18335.16068715934</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5613,17 +5513,21 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>18351.02947035579</v>
+        <v>18335.80312229259</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D229" t="n">
         <v>10</v>
       </c>
@@ -5633,19 +5537,19 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>17782.38145707463</v>
+        <v>18336.92716406303</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="B230" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -5657,15 +5561,15 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>18290.65675000885</v>
+        <v>18336.97169231531</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="B231" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5681,17 +5585,21 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>18348.94098990725</v>
+        <v>18337.32363332192</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="B232" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C232" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D232" t="n">
         <v>10</v>
       </c>
@@ -5701,19 +5609,19 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>17749.19919917847</v>
+        <v>18337.9457452731</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -5725,12 +5633,12 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>18281.58238766852</v>
+        <v>18338.02481651106</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="B234" t="n">
         <v>0.5</v>
@@ -5749,17 +5657,21 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>18344.84704158266</v>
+        <v>18339.11541510508</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D235" t="n">
         <v>10</v>
       </c>
@@ -5769,19 +5681,19 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>17695.17414262868</v>
+        <v>18340.269110388</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="B236" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -5793,15 +5705,15 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>18267.23770300887</v>
+        <v>18340.38770323157</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="B237" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5817,17 +5729,21 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>18333.16555526706</v>
+        <v>18340.62403442232</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="B238" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C238" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D238" t="n">
         <v>10</v>
       </c>
@@ -5837,19 +5753,19 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>17591.16141079948</v>
+        <v>18341.91170755635</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -5861,15 +5777,15 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>157498.5905672409</v>
+        <v>18342.24983566298</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5885,17 +5801,21 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>18022.21814101574</v>
+        <v>18342.66657232502</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
-      </c>
-      <c r="C241" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D241" t="n">
         <v>10</v>
       </c>
@@ -5905,19 +5825,19 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>17299.02532297954</v>
+        <v>18343.02366591297</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -5929,15 +5849,15 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>18298.97574762487</v>
+        <v>18343.75515958168</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5953,17 +5873,21 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>18351.42247246516</v>
+        <v>18343.99358228013</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="B244" t="n">
         <v>0</v>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D244" t="n">
         <v>10</v>
       </c>
@@ -5973,19 +5897,19 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>17788.80106301765</v>
+        <v>18344.4882990833</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="B245" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -5997,12 +5921,12 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>18292.12532896915</v>
+        <v>18344.84704158266</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="B246" t="n">
         <v>0.25</v>
@@ -6021,7 +5945,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>18349.45835990276</v>
+        <v>18344.99726979493</v>
       </c>
     </row>
     <row r="247">
@@ -6029,9 +5953,13 @@
         <v>1.7</v>
       </c>
       <c r="B247" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C247" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D247" t="n">
         <v>10</v>
       </c>
@@ -6041,19 +5969,19 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>17756.6109806628</v>
+        <v>18345.60383178308</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="B248" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -6065,15 +5993,15 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>18282.96027657456</v>
+        <v>18345.9194596913</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6089,17 +6017,21 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>18345.60383178308</v>
+        <v>18346.03965654993</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="B250" t="n">
         <v>0.5</v>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D250" t="n">
         <v>10</v>
       </c>
@@ -6109,19 +6041,19 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>17703.7654717334</v>
+        <v>18346.27949779755</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="B251" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -6133,15 +6065,15 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>18268.57969227411</v>
+        <v>18346.88642097095</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="B252" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -6157,17 +6089,21 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>18334.55634278216</v>
+        <v>18346.92690916367</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="B253" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D253" t="n">
         <v>10</v>
       </c>
@@ -6177,19 +6113,19 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>17600.49658756436</v>
+        <v>18347.07350196186</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -6201,15 +6137,15 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>156117.1424637933</v>
+        <v>18347.43458493545</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -6225,17 +6161,21 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>18023.10669103595</v>
+        <v>18347.69126261474</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
-      </c>
-      <c r="C256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D256" t="n">
         <v>10</v>
       </c>
@@ -6245,19 +6185,19 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>17299.17469301681</v>
+        <v>18348.02381292044</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -6269,12 +6209,12 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>18300.41244487202</v>
+        <v>18348.35659930198</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="B258" t="n">
         <v>0</v>
@@ -6293,17 +6233,21 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>18351.77259322625</v>
+        <v>18348.81996789005</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
-      </c>
-      <c r="C259" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D259" t="n">
         <v>10</v>
       </c>
@@ -6313,19 +6257,19 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>17794.65750540496</v>
+        <v>18348.94098990725</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B260" t="n">
         <v>0.25</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -6337,15 +6281,15 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>18293.52155869009</v>
+        <v>18349.45835990276</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="B261" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -6361,7 +6305,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>18349.9196137007</v>
+        <v>18349.49666381954</v>
       </c>
     </row>
     <row r="262">
@@ -6371,7 +6315,11 @@
       <c r="B262" t="n">
         <v>0.25</v>
       </c>
-      <c r="C262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D262" t="n">
         <v>10</v>
       </c>
@@ -6381,19 +6329,19 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>17763.41367745249</v>
+        <v>18349.9196137007</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="B263" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -6405,15 +6353,15 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>18284.27142952925</v>
+        <v>18350.07891143717</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="B264" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -6429,17 +6377,21 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>18346.27949779755</v>
+        <v>18350.33341178151</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="B265" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D265" t="n">
         <v>10</v>
       </c>
@@ -6449,19 +6401,19 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>17711.72874091245</v>
+        <v>18350.58519490086</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="B266" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -6473,15 +6425,15 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>18269.83922552961</v>
+        <v>18350.70671966699</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="B267" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6497,17 +6449,21 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>18335.80312229259</v>
+        <v>18351.02947035579</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B268" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D268" t="n">
         <v>10</v>
       </c>
@@ -6517,7 +6473,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>17609.31476946755</v>
+        <v>18351.42247246516</v>
       </c>
     </row>
     <row r="269">
@@ -6525,11 +6481,11 @@
         <v>1.8</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -6541,15 +6497,15 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>154735.8625965571</v>
+        <v>18351.77259322625</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -6565,17 +6521,21 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>18023.9954820576</v>
+        <v>18352.08648797839</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
-      </c>
-      <c r="C271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D271" t="n">
         <v>10</v>
       </c>
@@ -6585,19 +6545,19 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>17299.32406523784</v>
+        <v>18352.36950254549</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -6609,15 +6569,15 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>18301.7759623079</v>
+        <v>54400.61321796938</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -6633,17 +6593,21 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>18352.08648797839</v>
+        <v>109669.9533460627</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
-      </c>
-      <c r="C274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D274" t="n">
         <v>10</v>
       </c>
@@ -6653,7 +6617,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>17800.02195207692</v>
+        <v>151973.8259192123</v>
       </c>
     </row>
     <row r="275">
@@ -6661,7 +6625,7 @@
         <v>1.9</v>
       </c>
       <c r="B275" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -6677,19 +6641,19 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>18294.85203506276</v>
+        <v>153354.7555114876</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="B276" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -6701,17 +6665,21 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>18350.33341178151</v>
+        <v>154735.8625965571</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="B277" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D277" t="n">
         <v>10</v>
       </c>
@@ -6721,15 +6689,15 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>17769.67967296176</v>
+        <v>156117.1424637933</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B278" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -6745,19 +6713,19 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>18285.52289385098</v>
+        <v>157498.5905672409</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="B279" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -6769,17 +6737,21 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>18346.88642097095</v>
+        <v>158880.2025185068</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="B280" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D280" t="n">
         <v>10</v>
       </c>
@@ -6789,15 +6761,15 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>17719.13083498932</v>
+        <v>160261.974080015</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="B281" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -6813,19 +6785,19 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>18271.02747782859</v>
+        <v>161643.9011586036</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="B282" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -6837,17 +6809,21 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>18336.92716406303</v>
+        <v>163025.979799444</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="B283" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D283" t="n">
         <v>10</v>
       </c>
@@ -6857,12 +6833,12 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>17617.6584137202</v>
+        <v>164408.2061802643</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -6881,12 +6857,12 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>153354.7555114876</v>
+        <v>165790.5766058592</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -6905,17 +6881,21 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>18024.88451404504</v>
+        <v>166008.1684728135</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="B286" t="n">
         <v>1</v>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D286" t="n">
         <v>10</v>
       </c>
@@ -6925,15 +6905,15 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>17299.47343955882</v>
+        <v>167173.0875028677</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6949,19 +6929,19 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>18303.07241354962</v>
+        <v>168555.7354148088</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6973,17 +6953,21 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>18352.36950254549</v>
+        <v>169938.5169973536</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
-      </c>
-      <c r="C289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D289" t="n">
         <v>10</v>
       </c>
@@ -6993,19 +6977,19 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>17804.95404075854</v>
+        <v>171321.4290138278</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="B290" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -7017,15 +7001,15 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>18296.12237051153</v>
+        <v>222605.1810397785</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="B291" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -7041,17 +7025,21 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>18350.70671966699</v>
+        <v>279303.7102243549</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B292" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D292" t="n">
         <v>10</v>
       </c>
@@ -7061,19 +7049,19 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>17775.47028148094</v>
+        <v>336052.376509544</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="B293" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -7085,15 +7073,15 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>18286.72049943799</v>
+        <v>392829.4518790793</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="B294" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -7109,17 +7097,21 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>18347.43458493545</v>
+        <v>449624.1742420081</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="B295" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D295" t="n">
         <v>10</v>
       </c>
@@ -7129,19 +7121,19 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>17726.02940940937</v>
+        <v>506430.6064558904</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="B296" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -7153,19 +7145,19 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>18272.15350917778</v>
+        <v>563245.2055197963</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B297" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -7177,17 +7169,21 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>18337.9457452731</v>
+        <v>4809081.658350804</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="B298" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D298" t="n">
         <v>10</v>
       </c>
@@ -7197,12 +7193,12 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>17625.56538412332</v>
+        <v>43834713.87996787</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="B299" t="n">
         <v>1</v>
@@ -7221,19 +7217,19 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>151973.8259192123</v>
+        <v>82864987.81373864</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="B300" t="n">
         <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -7245,17 +7241,21 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>18025.77378696261</v>
+        <v>114721805.0188131</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
-      <c r="C301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D301" t="n">
         <v>10</v>
       </c>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>17299.62281602157</v>
+        <v>137216270.2701026</v>
       </c>
     </row>
   </sheetData>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7332,12 +7332,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16630.28347127164</v>
+        <v>14827.63187322461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7353,12 +7353,12 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16630.25714346798</v>
+        <v>14827.76686734109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7374,12 +7374,12 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17833.99534884027</v>
+        <v>15784.57896915984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7395,12 +7395,12 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17833.86496389965</v>
+        <v>15784.64512853609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7416,12 +7416,12 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15784.57896915984</v>
+        <v>15840.09963155231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7437,12 +7437,12 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15784.64512853609</v>
+        <v>15840.57461877988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7458,12 +7458,12 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14827.63187322461</v>
+        <v>16586.80849606901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -7479,16 +7479,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14827.76686734109</v>
+        <v>16587.13084876453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -7500,16 +7500,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17368.69385208925</v>
+        <v>16630.25714346798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -7521,12 +7521,12 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17368.32348835662</v>
+        <v>16630.28347127164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7542,12 +7542,12 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19383.66788093526</v>
+        <v>17241.57555481366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7563,12 +7563,12 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19382.95433317459</v>
+        <v>17241.65892225591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7584,12 +7584,12 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18212.13386338586</v>
+        <v>17350.29380442367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -7605,16 +7605,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18211.78486808111</v>
+        <v>17350.39894824394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -7626,16 +7626,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18502.50892164167</v>
+        <v>17368.32348835662</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -7647,12 +7647,12 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18502.15210257592</v>
+        <v>17368.69385208925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -7668,12 +7668,12 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18214.47252317248</v>
+        <v>17399.58468832621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -7689,16 +7689,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18214.28461839681</v>
+        <v>17399.58509027191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -7710,16 +7710,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15840.09963155231</v>
+        <v>17472.8033809658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -7731,16 +7731,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15840.57461877988</v>
+        <v>17472.80580382158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -7752,16 +7752,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17350.29380442367</v>
+        <v>17680.6978487582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17350.39894824394</v>
+        <v>17680.77602086799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -7794,16 +7794,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16586.80849606901</v>
+        <v>17833.86496389965</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -7815,16 +7815,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16587.13084876453</v>
+        <v>17833.99534884027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -7836,16 +7836,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17241.57555481366</v>
+        <v>18211.78486808111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -7857,16 +7857,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17241.65892225591</v>
+        <v>18212.13386338586</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -7878,16 +7878,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17680.77602086799</v>
+        <v>18214.28461839681</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -7899,16 +7899,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17680.6978487582</v>
+        <v>18214.47252317248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -7920,16 +7920,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17472.80580382158</v>
+        <v>18272.16300628707</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -7941,16 +7941,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17472.8033809658</v>
+        <v>18272.46311534841</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -7962,16 +7962,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17399.58468832621</v>
+        <v>18380.88521449245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -7983,16 +7983,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>17399.58509027191</v>
+        <v>18381.29116847622</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -8004,16 +8004,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18381.29116847622</v>
+        <v>18456.67781340374</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -8025,16 +8025,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18380.88521449245</v>
+        <v>18457.11280533755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -8046,16 +8046,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18457.11280533755</v>
+        <v>18502.15210257592</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -8067,16 +8067,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18456.67781340374</v>
+        <v>18502.50892164167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -8088,16 +8088,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>18272.46311534841</v>
+        <v>19382.95433317459</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>18272.16300628707</v>
+        <v>19383.66788093526</v>
       </c>
     </row>
   </sheetData>
@@ -8176,7 +8176,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -8206,13 +8206,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>249305.9623250678</v>
+        <v>14929.18364760034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -8242,13 +8242,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1621144.335379135</v>
+        <v>15289.5297312781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18342.66316479457</v>
+        <v>18342.5143806792</v>
       </c>
     </row>
     <row r="5">
@@ -8320,7 +8320,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8330,12 +8330,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -8350,23 +8350,23 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>572111.0691710871</v>
+        <v>18342.57930156118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>39643.64216526847</v>
+        <v>18342.60887473663</v>
       </c>
     </row>
     <row r="8">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18343.04701140556</v>
+        <v>18342.62444834102</v>
       </c>
     </row>
     <row r="9">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18342.62444834102</v>
+        <v>18342.66316479457</v>
       </c>
     </row>
     <row r="10">
@@ -8469,12 +8469,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8494,28 +8494,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15289.5297312781</v>
+        <v>18342.72482958725</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14929.18364760034</v>
+        <v>18343.04701140556</v>
       </c>
     </row>
     <row r="12">
@@ -8541,17 +8541,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18342.5143806792</v>
+        <v>18357.84119829721</v>
       </c>
     </row>
     <row r="13">
@@ -8577,17 +8577,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8602,13 +8602,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18342.60887473663</v>
+        <v>28553.81600059714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -8638,18 +8638,18 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>28553.81600059714</v>
+        <v>39643.64216526847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8674,13 +8674,13 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18357.84119829721</v>
+        <v>249305.9623250678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -8710,23 +8710,23 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18342.72482958725</v>
+        <v>572111.0691710871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>18342.57930156118</v>
+        <v>1621144.335379135</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18308.18431445016</v>
+        <v>18306.71334093636</v>
       </c>
     </row>
     <row r="3">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18308.18431445016</v>
+        <v>18306.71334093636</v>
       </c>
     </row>
     <row r="4">
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18308.18431445016</v>
+        <v>18306.71334093636</v>
       </c>
     </row>
     <row r="5">
@@ -8879,7 +8879,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0.01</v>
@@ -8893,7 +8893,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18307.89010573692</v>
+        <v>18307.30170932548</v>
       </c>
     </row>
     <row r="6">
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18307.89010573692</v>
+        <v>18307.30170932548</v>
       </c>
     </row>
     <row r="7">
@@ -8927,7 +8927,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0.5</v>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18307.89010573692</v>
+        <v>18307.30170932548</v>
       </c>
     </row>
     <row r="8">
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0.01</v>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18307.30170932548</v>
+        <v>18307.89010573692</v>
       </c>
     </row>
     <row r="9">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18307.30170932548</v>
+        <v>18307.89010573692</v>
       </c>
     </row>
     <row r="10">
@@ -8999,7 +8999,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0.5</v>
@@ -9013,7 +9013,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18307.30170932548</v>
+        <v>18307.89010573692</v>
       </c>
     </row>
     <row r="11">
@@ -9023,7 +9023,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>0.01</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18306.71334093636</v>
+        <v>18308.18431445016</v>
       </c>
     </row>
     <row r="12">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
         <v>0.1</v>
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18306.71334093636</v>
+        <v>18308.18431445016</v>
       </c>
     </row>
     <row r="13">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n">
         <v>0.5</v>
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18306.71334093636</v>
+        <v>18308.18431445016</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -490,12 +490,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
@@ -505,12 +509,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>17296.93436727595</v>
+        <v>17296.78715312081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -525,17 +529,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17297.08370732684</v>
+        <v>17296.93436727595</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
@@ -545,12 +553,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17297.23304952228</v>
+        <v>17296.93866560364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -565,17 +573,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17297.38239386284</v>
+        <v>17297.08370732684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
@@ -585,12 +597,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17297.53174034928</v>
+        <v>17297.09009758977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -605,17 +617,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17297.68108896466</v>
+        <v>17297.23304952228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
@@ -625,17 +641,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17297.83043974045</v>
+        <v>17297.24157026834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
@@ -645,12 +665,12 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17297.97979264065</v>
+        <v>17297.29172018843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -665,17 +685,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>17298.12914768318</v>
+        <v>17297.38239386284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
@@ -685,12 +709,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17298.2785048918</v>
+        <v>17297.39309558093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -705,17 +729,21 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17298.42786421882</v>
+        <v>17297.53174034928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
@@ -725,12 +753,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17298.577225688</v>
+        <v>17297.54468936089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -745,17 +773,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17298.72658933087</v>
+        <v>17297.68108896466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
@@ -765,12 +797,12 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17298.87595508421</v>
+        <v>17297.69602519885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -785,17 +817,21 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>17299.02532297954</v>
+        <v>17297.83043974045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D18" t="n">
         <v>10</v>
       </c>
@@ -805,17 +841,21 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>17299.17469301681</v>
+        <v>17297.84771252365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
@@ -825,12 +865,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17299.32406523784</v>
+        <v>17297.94824474552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -845,17 +885,21 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>17299.47343955882</v>
+        <v>17297.97979264065</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
@@ -865,15 +909,15 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>17299.62281602157</v>
+        <v>17297.99905649272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
@@ -885,17 +929,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>17330.40881316781</v>
+        <v>17298.12914768318</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D23" t="n">
         <v>10</v>
       </c>
@@ -905,15 +953,15 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>17360.40799450287</v>
+        <v>17298.15040450886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="B24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
@@ -925,17 +973,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>17360.54023647271</v>
+        <v>17298.2785048918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
@@ -945,15 +997,15 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>17387.36400883998</v>
+        <v>17298.30221733313</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="B26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
@@ -965,17 +1017,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>17387.61424979216</v>
+        <v>17298.42786421882</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
@@ -985,15 +1041,15 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>17411.73630585072</v>
+        <v>17298.45357349156</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
@@ -1005,17 +1061,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>17411.85505024826</v>
+        <v>17298.577225688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D29" t="n">
         <v>10</v>
       </c>
@@ -1025,17 +1085,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17412.09254304609</v>
+        <v>17298.60430505268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D30" t="n">
         <v>10</v>
       </c>
@@ -1045,15 +1109,15 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>17434.34545188022</v>
+        <v>17298.60493369673</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
@@ -1065,17 +1129,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>17454.24275590546</v>
+        <v>17298.72658933087</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D32" t="n">
         <v>10</v>
       </c>
@@ -1085,15 +1153,15 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>17454.35055957171</v>
+        <v>17298.75690899469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="B33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
@@ -1105,17 +1173,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>17454.67397713381</v>
+        <v>17298.87595508421</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="B34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
@@ -1125,15 +1197,15 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17473.32563603019</v>
+        <v>17298.90827735715</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
@@ -1145,17 +1217,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>17489.91360470834</v>
+        <v>17299.02532297954</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D36" t="n">
         <v>10</v>
       </c>
@@ -1165,15 +1241,15 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>17490.11109608942</v>
+        <v>17299.05964976598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="B37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
@@ -1185,17 +1261,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>17490.50608981562</v>
+        <v>17299.17469301681</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="B38" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
@@ -1205,17 +1285,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>17505.81915250707</v>
+        <v>17299.21102622107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
@@ -1225,15 +1309,15 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>17506.3878179866</v>
+        <v>17299.26077484265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
@@ -1245,17 +1329,21 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>17520.66108442767</v>
+        <v>17299.32406523784</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B41" t="n">
         <v>1</v>
       </c>
-      <c r="B41" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D41" t="n">
         <v>10</v>
       </c>
@@ -1265,15 +1353,15 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>17521.11668795555</v>
+        <v>17299.36321716045</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="B42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
@@ -1285,17 +1373,21 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>17534.81699923541</v>
+        <v>17299.47343955882</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D43" t="n">
         <v>10</v>
       </c>
@@ -1305,15 +1397,15 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>17546.83396705452</v>
+        <v>17299.51460179265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
@@ -1325,17 +1417,21 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17546.91856855063</v>
+        <v>17299.62281602157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D45" t="n">
         <v>10</v>
       </c>
@@ -1345,17 +1441,21 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>17547.08777354011</v>
+        <v>17299.66599047074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D46" t="n">
         <v>10</v>
       </c>
@@ -1365,17 +1465,21 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17547.59540449177</v>
+        <v>17299.91774113481</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="B47" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D47" t="n">
         <v>10</v>
       </c>
@@ -1385,7 +1489,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>17559.54399235168</v>
+        <v>17300.57531942307</v>
       </c>
     </row>
     <row r="48">
@@ -1393,9 +1497,13 @@
         <v>0.7</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D48" t="n">
         <v>10</v>
       </c>
@@ -1405,17 +1513,21 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>17570.18992810898</v>
+        <v>17301.2311468034</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="B49" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D49" t="n">
         <v>10</v>
       </c>
@@ -1425,17 +1537,21 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17570.74273593138</v>
+        <v>17301.88963606001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="B50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D50" t="n">
         <v>10</v>
       </c>
@@ -1445,17 +1561,21 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>17580.49713814427</v>
+        <v>17302.54575237767</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D51" t="n">
         <v>10</v>
       </c>
@@ -1465,17 +1585,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>17581.26145634815</v>
+        <v>17303.20201193541</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D52" t="n">
         <v>10</v>
       </c>
@@ -1485,17 +1609,21 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17590.2727864764</v>
+        <v>17303.86176346755</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D53" t="n">
         <v>10</v>
       </c>
@@ -1505,17 +1633,21 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>17590.56898646434</v>
+        <v>17304.51831259477</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="B54" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D54" t="n">
         <v>10</v>
       </c>
@@ -1525,17 +1657,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>17591.16141079948</v>
+        <v>17305.17500490236</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="B55" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D55" t="n">
         <v>10</v>
       </c>
@@ -1545,17 +1681,21 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>17600.49658756436</v>
+        <v>17305.83629286641</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D56" t="n">
         <v>10</v>
       </c>
@@ -1565,17 +1705,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>17608.47816071591</v>
+        <v>17306.49327560245</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D57" t="n">
         <v>10</v>
       </c>
@@ -1585,17 +1729,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>17608.68730684423</v>
+        <v>17307.15040145566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D58" t="n">
         <v>10</v>
       </c>
@@ -1605,17 +1753,21 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>17609.31476946755</v>
+        <v>17307.80767040978</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="B59" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D59" t="n">
         <v>10</v>
       </c>
@@ -1625,17 +1777,21 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>17617.6584137202</v>
+        <v>17308.46508244846</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D60" t="n">
         <v>10</v>
       </c>
@@ -1645,17 +1801,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>17624.57737293608</v>
+        <v>17309.12856835842</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="B61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>minmax</t>
+        </is>
+      </c>
       <c r="D61" t="n">
         <v>10</v>
       </c>
@@ -1665,12 +1825,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>17624.90670000231</v>
+        <v>17309.78627187837</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="B62" t="n">
         <v>0.75</v>
@@ -1685,17 +1845,21 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>17625.56538412332</v>
+        <v>17330.40881316781</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
@@ -1705,12 +1869,12 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>17632.1721654571</v>
+        <v>17341.75229615732</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="B64" t="n">
         <v>0.5</v>
@@ -1725,15 +1889,15 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>17639.51468560154</v>
+        <v>17360.40799450287</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
@@ -1745,17 +1909,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>17652.38688400752</v>
+        <v>17360.54023647271</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B66" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D66" t="n">
         <v>10</v>
       </c>
@@ -1765,17 +1933,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>17652.50553627452</v>
+        <v>17384.47194447599</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
@@ -1785,15 +1957,15 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>17652.74284470772</v>
+        <v>17384.61781890712</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
@@ -1805,15 +1977,15 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>17664.77993529305</v>
+        <v>17387.36400883998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="B69" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
@@ -1825,12 +1997,12 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>17670.15300685395</v>
+        <v>17387.61424979216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1845,12 +2017,12 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>17675.40358865617</v>
+        <v>17411.73630585072</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="B71" t="n">
         <v>0.5</v>
@@ -1865,15 +2037,15 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>17675.78144927578</v>
+        <v>17411.85505024826</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B72" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
@@ -1885,17 +2057,21 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17685.61841721588</v>
+        <v>17412.09254304609</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
@@ -1905,17 +2081,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>17685.87669733327</v>
+        <v>17423.4115350057</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D74" t="n">
         <v>10</v>
       </c>
@@ -1925,15 +2105,15 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17694.77794285718</v>
+        <v>17423.69538805942</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
@@ -1945,12 +2125,12 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>17695.17414262868</v>
+        <v>17434.34545188022</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="B76" t="n">
         <v>0.25</v>
@@ -1965,12 +2145,12 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17699.28601762925</v>
+        <v>17454.24275590546</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="B77" t="n">
         <v>0.5</v>
@@ -1985,15 +2165,15 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17703.7654717334</v>
+        <v>17454.35055957171</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
@@ -2005,17 +2185,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>17711.31694983432</v>
+        <v>17454.67397713381</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D79" t="n">
         <v>10</v>
       </c>
@@ -2025,17 +2209,21 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>17711.45421180856</v>
+        <v>17458.44435102888</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="B80" t="n">
         <v>0.5</v>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D80" t="n">
         <v>10</v>
       </c>
@@ -2045,17 +2233,21 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>17711.72874091245</v>
+        <v>17458.58238602254</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D81" t="n">
         <v>10</v>
       </c>
@@ -2065,15 +2257,15 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>17719.13083498932</v>
+        <v>17458.85834736677</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="B82" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
@@ -2085,12 +2277,12 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17722.3584143731</v>
+        <v>17473.32563603019</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -2105,12 +2297,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>17725.6041929472</v>
+        <v>17489.91360470834</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="B84" t="n">
         <v>0.5</v>
@@ -2125,17 +2317,21 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>17726.02940940937</v>
+        <v>17490.11109608942</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="B85" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D85" t="n">
         <v>10</v>
       </c>
@@ -2145,15 +2341,15 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>17732.18693297853</v>
+        <v>17490.39821867819</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
@@ -2165,12 +2361,12 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>17738.07255582493</v>
+        <v>17490.50608981562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="B87" t="n">
         <v>0.25</v>
@@ -2185,15 +2381,15 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17741.09225082274</v>
+        <v>17505.81915250707</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
@@ -2205,17 +2401,21 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>17749.05014314405</v>
+        <v>17506.3878179866</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="B89" t="n">
         <v>0.25</v>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D89" t="n">
         <v>10</v>
       </c>
@@ -2225,17 +2425,21 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>17749.19919917847</v>
+        <v>17518.18757090249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="B90" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D90" t="n">
         <v>10</v>
       </c>
@@ -2245,17 +2449,21 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17756.6109806628</v>
+        <v>17518.31784340023</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D91" t="n">
         <v>10</v>
       </c>
@@ -2265,15 +2473,15 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17758.79030462834</v>
+        <v>17518.70868276216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
@@ -2285,15 +2493,15 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17763.41367745249</v>
+        <v>17520.66108442767</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
@@ -2305,15 +2513,15 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17767.49185614796</v>
+        <v>17521.11668795555</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="B94" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
@@ -2325,17 +2533,21 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17769.67967296176</v>
+        <v>17534.81699923541</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D95" t="n">
         <v>10</v>
       </c>
@@ -2345,15 +2557,15 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17775.31305188646</v>
+        <v>17544.18104412156</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="B96" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
@@ -2365,15 +2577,15 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>17775.47028148094</v>
+        <v>17546.83396705452</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
@@ -2385,15 +2597,15 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>17782.38145707463</v>
+        <v>17546.91856855063</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
@@ -2405,15 +2617,15 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>17788.80106301765</v>
+        <v>17547.08777354011</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
@@ -2425,15 +2637,15 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>17794.65750540496</v>
+        <v>17547.59540449177</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
@@ -2445,17 +2657,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>17800.02195207692</v>
+        <v>17559.54399235168</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>0.75</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
       <c r="D101" t="n">
         <v>10</v>
       </c>
@@ -2465,19 +2681,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>17804.95404075854</v>
+        <v>17566.32102644645</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2489,19 +2705,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>18017.7790071838</v>
+        <v>17566.39436283706</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2513,21 +2729,17 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>18018.66635166216</v>
+        <v>17566.43113284061</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
         <v>10</v>
       </c>
@@ -2537,7 +2749,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>18019.55393732017</v>
+        <v>17570.18992810898</v>
       </c>
     </row>
     <row r="105">
@@ -2545,13 +2757,9 @@
         <v>1.4</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
         <v>10</v>
       </c>
@@ -2561,21 +2769,17 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>18020.4417641222</v>
+        <v>17570.74273593138</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
         <v>10</v>
       </c>
@@ -2585,21 +2789,17 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>18021.3298320326</v>
+        <v>17580.49713814427</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
         <v>10</v>
       </c>
@@ -2609,19 +2809,19 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>18022.21814101574</v>
+        <v>17581.26145634815</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2633,19 +2833,19 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>18023.10669103595</v>
+        <v>17587.05403711868</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2657,21 +2857,17 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>18023.9954820576</v>
+        <v>17587.1646134887</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
         <v>10</v>
       </c>
@@ -2681,21 +2877,17 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>18024.88451404504</v>
+        <v>17590.2727864764</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
         <v>10</v>
       </c>
@@ -2705,21 +2897,17 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>18025.77378696261</v>
+        <v>17590.56898646434</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="B112" t="n">
         <v>0.75</v>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
         <v>10</v>
       </c>
@@ -2729,21 +2917,17 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>18163.10920487389</v>
+        <v>17591.16141079948</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="B113" t="n">
         <v>0.75</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
         <v>10</v>
       </c>
@@ -2753,15 +2937,15 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>18189.35620922613</v>
+        <v>17600.49658756436</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2777,15 +2961,15 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>18198.41626861523</v>
+        <v>17605.89139157304</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B115" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2801,21 +2985,17 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>18199.85020389878</v>
+        <v>17605.98112408982</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="B116" t="n">
         <v>0.25</v>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
         <v>10</v>
       </c>
@@ -2825,21 +3005,17 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>18215.22739126499</v>
+        <v>17608.47816071591</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="B117" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
         <v>10</v>
       </c>
@@ -2849,21 +3025,17 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>18216.65874905248</v>
+        <v>17608.68730684423</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
         <v>10</v>
       </c>
@@ -2873,21 +3045,17 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>18222.99624211656</v>
+        <v>17609.31476946755</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="B119" t="n">
         <v>0.75</v>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
         <v>10</v>
       </c>
@@ -2897,15 +3065,15 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>18223.48555696641</v>
+        <v>17617.6584137202</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2921,21 +3089,17 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>18226.55942252565</v>
+        <v>17623.05768791139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
         <v>10</v>
       </c>
@@ -2945,21 +3109,17 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>18227.31415077542</v>
+        <v>17624.57737293608</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
         <v>10</v>
       </c>
@@ -2969,21 +3129,17 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>18228.05307910786</v>
+        <v>17624.90670000231</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
         <v>0.75</v>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
         <v>10</v>
       </c>
@@ -2993,21 +3149,17 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>18236.16139477216</v>
+        <v>17625.56538412332</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="B124" t="n">
         <v>0.25</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
         <v>10</v>
       </c>
@@ -3017,15 +3169,15 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>18240.80573125137</v>
+        <v>17632.1721654571</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3041,7 +3193,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>18241.39913959766</v>
+        <v>17638.7531616153</v>
       </c>
     </row>
     <row r="126">
@@ -3049,7 +3201,7 @@
         <v>0.6</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3065,15 +3217,15 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>18242.16771834112</v>
+        <v>17638.86431641398</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="B127" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3089,12 +3241,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>18246.82912213905</v>
+        <v>17638.90578018309</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3113,21 +3265,17 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>18248.95102840231</v>
+        <v>17638.92744114124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="B129" t="n">
         <v>0.5</v>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
         <v>10</v>
       </c>
@@ -3137,21 +3285,17 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>18249.66565978767</v>
+        <v>17639.51468560154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B130" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
         <v>10</v>
       </c>
@@ -3161,21 +3305,17 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>18250.54911834757</v>
+        <v>17652.38688400752</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="B131" t="n">
         <v>0.25</v>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
         <v>10</v>
       </c>
@@ -3185,21 +3325,17 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>18252.34876403692</v>
+        <v>17652.50553627452</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="B132" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
         <v>10</v>
       </c>
@@ -3209,19 +3345,19 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>18253.65630555377</v>
+        <v>17652.74284470772</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3233,21 +3369,17 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>18254.48724514308</v>
+        <v>17653.16038343298</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="B134" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
         <v>10</v>
       </c>
@@ -3257,15 +3389,15 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>18255.21879020919</v>
+        <v>17664.77993529305</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3281,15 +3413,15 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>18255.39710177031</v>
+        <v>17666.42596281353</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="B136" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3305,21 +3437,17 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>18256.31624239809</v>
+        <v>17666.55402723694</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="B137" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
         <v>10</v>
       </c>
@@ -3329,21 +3457,17 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>18258.63924464926</v>
+        <v>17670.15300685395</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
         <v>10</v>
       </c>
@@ -3353,21 +3477,17 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>18259.14474557476</v>
+        <v>17675.40358865617</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B139" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
         <v>10</v>
       </c>
@@ -3377,15 +3497,15 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>18259.43549326478</v>
+        <v>17675.78144927578</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3401,15 +3521,15 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>18259.76233105516</v>
+        <v>17678.67763098066</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="B141" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3425,21 +3545,17 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>18260.70154529766</v>
+        <v>17678.85909938585</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
         <v>10</v>
       </c>
@@ -3449,21 +3565,17 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>18262.55747787366</v>
+        <v>17685.61841721588</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="B143" t="n">
         <v>0.5</v>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
         <v>10</v>
       </c>
@@ -3473,12 +3585,12 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>18263.31684746456</v>
+        <v>17685.87669733327</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="B144" t="n">
         <v>0.75</v>
@@ -3497,16 +3609,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>18264.24680528812</v>
+        <v>17690.02679031424</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B145" t="n">
         <v>0.5</v>
       </c>
-      <c r="B145" t="n">
-        <v>0.25</v>
-      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>scale</t>
@@ -3521,7 +3633,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>18264.54320548353</v>
+        <v>17690.1705894401</v>
       </c>
     </row>
     <row r="146">
@@ -3545,21 +3657,17 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>18265.67348834406</v>
+        <v>17690.25152647586</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="B147" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
         <v>10</v>
       </c>
@@ -3569,21 +3677,17 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>18265.79929997792</v>
+        <v>17694.77794285718</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="B148" t="n">
         <v>0.5</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
         <v>10</v>
       </c>
@@ -3593,21 +3697,17 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>18266.31027018488</v>
+        <v>17695.17414262868</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="B149" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
         <v>10</v>
       </c>
@@ -3617,15 +3717,15 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>18267.23770300887</v>
+        <v>17699.28601762925</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="B150" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3641,7 +3741,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>18268.57834467362</v>
+        <v>17700.57075780582</v>
       </c>
     </row>
     <row r="151">
@@ -3649,13 +3749,9 @@
         <v>1.7</v>
       </c>
       <c r="B151" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
         <v>10</v>
       </c>
@@ -3665,15 +3761,15 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>18268.57969227411</v>
+        <v>17703.7654717334</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3689,15 +3785,15 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>18268.91001677904</v>
+        <v>17710.39470915816</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="B153" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3713,15 +3809,15 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>18269.83922552961</v>
+        <v>17710.55304586715</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3737,21 +3833,17 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>18270.5645837268</v>
+        <v>17710.60585945204</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="B155" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>10</v>
       </c>
@@ -3761,21 +3853,17 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>18271.02747782859</v>
+        <v>17711.31694983432</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
         <v>10</v>
       </c>
@@ -3785,21 +3873,17 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>18271.21967212278</v>
+        <v>17711.45421180856</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="B157" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
         <v>10</v>
       </c>
@@ -3809,21 +3893,17 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>18271.92038181242</v>
+        <v>17711.72874091245</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="B158" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
         <v>10</v>
       </c>
@@ -3833,15 +3913,15 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>18272.15350917778</v>
+        <v>17719.13083498932</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3857,21 +3937,17 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>18273.2952196651</v>
+        <v>17719.5733492886</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
         <v>10</v>
       </c>
@@ -3881,21 +3957,17 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>18273.97873787522</v>
+        <v>17722.3584143731</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>minmax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
         <v>10</v>
       </c>
@@ -3905,21 +3977,17 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>18274.27400768919</v>
+        <v>17725.6041929472</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
         <v>10</v>
       </c>
@@ -3929,15 +3997,15 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>18274.54571788586</v>
+        <v>17726.02940940937</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3953,19 +4021,19 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>18274.8219854882</v>
+        <v>17728.17234151447</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3977,15 +4045,15 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>18274.85947171596</v>
+        <v>17728.34404207758</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4001,21 +4069,17 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>18275.1934274861</v>
+        <v>17728.43384217732</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
         <v>10</v>
       </c>
@@ -4025,12 +4089,12 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>18276.95037578412</v>
+        <v>17732.18693297853</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="B167" t="n">
         <v>0.25</v>
@@ -4049,21 +4113,17 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>18277.40405116642</v>
+        <v>17736.48684735551</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
         <v>10</v>
       </c>
@@ -4073,21 +4133,17 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>18277.94598765041</v>
+        <v>17738.07255582493</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
         <v>10</v>
       </c>
@@ -4097,15 +4153,15 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>18278.58968013538</v>
+        <v>17741.09225082274</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="B170" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4121,21 +4177,17 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>18279.74193930622</v>
+        <v>17744.0319033806</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
         <v>10</v>
       </c>
@@ -4145,21 +4197,17 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>18280.12911682943</v>
+        <v>17749.05014314405</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
         <v>10</v>
       </c>
@@ -4169,21 +4217,17 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>18280.93851687921</v>
+        <v>17749.19919917847</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>10</v>
       </c>
@@ -4193,15 +4237,15 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>18281.58238766852</v>
+        <v>17756.6109806628</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="B174" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4217,15 +4261,15 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>18281.88556928988</v>
+        <v>17758.02250022472</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4241,12 +4285,12 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>18282.96027657456</v>
+        <v>17758.08759466625</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -4265,21 +4309,17 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>18283.62482539474</v>
+        <v>17758.12633964473</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B177" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
         <v>10</v>
       </c>
@@ -4289,7 +4329,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>18283.8731091471</v>
+        <v>17758.79030462834</v>
       </c>
     </row>
     <row r="178">
@@ -4297,13 +4337,9 @@
         <v>1.8</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
         <v>10</v>
       </c>
@@ -4313,21 +4349,17 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>18284.27142952925</v>
+        <v>17763.41367745249</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
         <v>10</v>
       </c>
@@ -4337,21 +4369,17 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>18285.52289385098</v>
+        <v>17767.49185614796</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="B180" t="n">
         <v>0.25</v>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
         <v>10</v>
       </c>
@@ -4361,15 +4389,15 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>18285.72942936033</v>
+        <v>17769.67967296176</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4385,21 +4413,17 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>18286.06956717871</v>
+        <v>17770.60731135052</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
         <v>10</v>
       </c>
@@ -4409,21 +4433,17 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>18286.72049943799</v>
+        <v>17775.31305188646</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
         <v>0.25</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
         <v>10</v>
       </c>
@@ -4433,19 +4453,19 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>18287.46943804247</v>
+        <v>17775.47028148094</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="B184" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4457,15 +4477,15 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>18288.23021513407</v>
+        <v>17776.51995727395</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4481,15 +4501,15 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>18288.31668043881</v>
+        <v>17782.02724805702</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="B186" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4505,21 +4525,17 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>18289.10796053638</v>
+        <v>17782.13650452419</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
         <v>10</v>
       </c>
@@ -4529,21 +4545,17 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>18290.39762307413</v>
+        <v>17782.38145707463</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="B188" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
         <v>10</v>
       </c>
@@ -4553,15 +4565,15 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>18290.65675000885</v>
+        <v>17788.80106301765</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="B189" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4577,15 +4589,15 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>18292.12532896915</v>
+        <v>17792.47450274179</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4601,7 +4613,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>18292.33589182141</v>
+        <v>17792.54890353323</v>
       </c>
     </row>
     <row r="191">
@@ -4609,13 +4621,9 @@
         <v>1.8</v>
       </c>
       <c r="B191" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
         <v>10</v>
       </c>
@@ -4625,21 +4633,17 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>18293.52155869009</v>
+        <v>17794.65750540496</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
         <v>10</v>
       </c>
@@ -4649,15 +4653,15 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>18294.14965562958</v>
+        <v>17800.02195207692</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B193" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4673,12 +4677,12 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>18294.85203506276</v>
+        <v>17802.10346757212</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -4697,7 +4701,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>18295.85336953061</v>
+        <v>17802.21917752507</v>
       </c>
     </row>
     <row r="195">
@@ -4705,13 +4709,9 @@
         <v>2</v>
       </c>
       <c r="B195" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
         <v>10</v>
       </c>
@@ -4721,19 +4721,19 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>18296.12237051153</v>
+        <v>17804.95404075854</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="B196" t="n">
         <v>0.25</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4745,19 +4745,19 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>18297.08745440572</v>
+        <v>17806.72921138822</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="B197" t="n">
         <v>0.5</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4769,15 +4769,15 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>18297.29684278233</v>
+        <v>17811.03898390178</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4793,19 +4793,19 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>18297.45880732523</v>
+        <v>17819.37783184096</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B199" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4817,12 +4817,12 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>18297.92537200781</v>
+        <v>17819.45918763441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -4841,15 +4841,15 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>18298.97574762487</v>
+        <v>17819.50444789351</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4865,15 +4865,15 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>18300.41244487202</v>
+        <v>17827.21441623546</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>18301.7759623079</v>
+        <v>17831.04771766162</v>
       </c>
     </row>
     <row r="203">
@@ -4897,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4913,19 +4913,19 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>18303.07241354962</v>
+        <v>17834.61016234858</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4937,19 +4937,19 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>18305.27944227125</v>
+        <v>17834.73922440561</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4961,19 +4961,19 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>18310.0692724111</v>
+        <v>17841.70832084481</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4985,19 +4985,19 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>18310.39692539543</v>
+        <v>17848.42875177341</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="B207" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -5009,19 +5009,19 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>18311.04992887452</v>
+        <v>17851.60879068387</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="B208" t="n">
         <v>0.25</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -5033,19 +5033,19 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>18314.81695507234</v>
+        <v>17860.87725655774</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="B209" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -5057,19 +5057,19 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>18315.69905344152</v>
+        <v>17860.92214378083</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -5081,19 +5081,19 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>18318.85617359881</v>
+        <v>17869.61264765987</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="B211" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -5105,19 +5105,19 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>18319.52496885753</v>
+        <v>17872.4654834202</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="B212" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -5129,15 +5129,15 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>18322.72866891483</v>
+        <v>17877.89217146342</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5153,19 +5153,19 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>18324.43016789419</v>
+        <v>17880.79593729483</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B214" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -5177,19 +5177,19 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>18324.54429097974</v>
+        <v>17883.23556550307</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>18324.77077419083</v>
+        <v>17885.77671949726</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="B216" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -5225,19 +5225,19 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>18325.45060493686</v>
+        <v>17893.31481593842</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="B217" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -5249,19 +5249,19 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>18327.79189542575</v>
+        <v>17893.36178321713</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -5273,19 +5273,19 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>18329.13922128268</v>
+        <v>17902.94058629962</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="B219" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -5297,19 +5297,19 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>18329.82719947524</v>
+        <v>17912.04519023338</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="B220" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -5321,19 +5321,19 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>18330.69123584505</v>
+        <v>17920.7321941864</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="B221" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -5345,19 +5345,19 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>18331.60427165538</v>
+        <v>17929.0461538064</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B222" t="n">
         <v>0</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -5369,15 +5369,15 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>18332.15030014997</v>
+        <v>17937.02278089265</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5393,15 +5393,15 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>18332.49788153125</v>
+        <v>17961.38487715317</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="B224" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5417,12 +5417,12 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>18333.16555526706</v>
+        <v>17961.44057700577</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="B225" t="n">
         <v>0.75</v>
@@ -5441,12 +5441,12 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>18334.55634278216</v>
+        <v>18010.79204012249</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="B226" t="n">
         <v>0.25</v>
@@ -5465,15 +5465,15 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>18334.92774835813</v>
+        <v>18010.89462572673</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5489,15 +5489,15 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>18335.16068715934</v>
+        <v>18048.90480117857</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="B228" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5513,15 +5513,15 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>18335.80312229259</v>
+        <v>18049.15197267985</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="B229" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>18336.92716406303</v>
+        <v>18049.27577725375</v>
       </c>
     </row>
     <row r="230">
@@ -5545,7 +5545,7 @@
         <v>0.5</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5561,15 +5561,15 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>18336.97169231531</v>
+        <v>18080.68445916922</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5585,15 +5585,15 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>18337.32363332192</v>
+        <v>18105.93905832914</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="B232" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5609,15 +5609,15 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>18337.9457452731</v>
+        <v>18106.03245378802</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B233" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5633,15 +5633,15 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>18338.02481651106</v>
+        <v>18106.31267768583</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="B234" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5657,12 +5657,12 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>18339.11541510508</v>
+        <v>18127.74606819243</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -5681,15 +5681,15 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>18340.269110388</v>
+        <v>18145.41111965537</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B236" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5705,15 +5705,15 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>18340.38770323157</v>
+        <v>18145.57548129403</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5729,15 +5729,15 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>18340.62403442232</v>
+        <v>18145.90494131711</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>18341.91170755635</v>
+        <v>18161.00148099679</v>
       </c>
     </row>
     <row r="239">
@@ -5761,7 +5761,7 @@
         <v>0.9</v>
       </c>
       <c r="B239" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5777,15 +5777,15 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>18342.24983566298</v>
+        <v>18161.46645833338</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5801,15 +5801,15 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>18342.66657232502</v>
+        <v>18174.57392151417</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5825,15 +5825,15 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>18343.02366591297</v>
+        <v>18174.93933994943</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="B242" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5849,15 +5849,15 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>18343.75515958168</v>
+        <v>18186.71074945911</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5873,15 +5873,15 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>18343.99358228013</v>
+        <v>18196.49045580828</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5897,12 +5897,12 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>18344.4882990833</v>
+        <v>18196.55585488409</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="B245" t="n">
         <v>0.5</v>
@@ -5921,15 +5921,15 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>18344.84704158266</v>
+        <v>18196.6867649068</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="B246" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5945,15 +5945,15 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>18344.99726979493</v>
+        <v>18197.0795493197</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5969,15 +5969,15 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>18345.60383178308</v>
+        <v>18206.27955947072</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5993,15 +5993,15 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>18345.9194596913</v>
+        <v>18214.08172994511</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="B249" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6017,15 +6017,15 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>18346.03965654993</v>
+        <v>18214.49602314836</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="B250" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -6041,15 +6041,15 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>18346.27949779755</v>
+        <v>18221.31289313138</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -6065,15 +6065,15 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>18346.88642097095</v>
+        <v>18221.87741555344</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="B252" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -6089,15 +6089,15 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>18346.92690916367</v>
+        <v>18227.89661724208</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -6113,15 +6113,15 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>18347.07350196186</v>
+        <v>18228.11238807476</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -6137,15 +6137,15 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>18347.43458493545</v>
+        <v>18228.5440252843</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="B255" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -6161,15 +6161,15 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>18347.69126261474</v>
+        <v>18234.59427256174</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -6185,15 +6185,15 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>18348.02381292044</v>
+        <v>18239.51488589616</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="B257" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -6209,15 +6209,15 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>18348.35659930198</v>
+        <v>18239.6635037363</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -6233,15 +6233,15 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>18348.81996789005</v>
+        <v>18240.10942025927</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="B259" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -6257,15 +6257,15 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>18348.94098990725</v>
+        <v>18245.15712909345</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="B260" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -6281,15 +6281,15 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>18349.45835990276</v>
+        <v>18249.10739835897</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -6305,15 +6305,15 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>18349.49666381954</v>
+        <v>18249.3362950869</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="B262" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -6329,15 +6329,15 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>18349.9196137007</v>
+        <v>18249.79417122691</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -6353,15 +6353,15 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>18350.07891143717</v>
+        <v>18253.45100497961</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="B264" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -6377,12 +6377,12 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>18350.33341178151</v>
+        <v>18257.55296187568</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="B265" t="n">
         <v>0</v>
@@ -6401,12 +6401,12 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>18350.58519490086</v>
+        <v>18264.38006425384</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B266" t="n">
         <v>0.25</v>
@@ -6425,15 +6425,15 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>18350.70671966699</v>
+        <v>18264.45950978557</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6449,15 +6449,15 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>18351.02947035579</v>
+        <v>18264.61841339416</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -6473,15 +6473,15 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>18351.42247246516</v>
+        <v>18270.75821492126</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -6497,12 +6497,12 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>18351.77259322625</v>
+        <v>18273.373340542</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="B270" t="n">
         <v>0</v>
@@ -6521,15 +6521,15 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>18352.08648797839</v>
+        <v>18275.89726789327</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>18352.36950254549</v>
+        <v>18276.14274868153</v>
       </c>
     </row>
     <row r="272">
@@ -6553,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -6569,15 +6569,15 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>54400.61321796938</v>
+        <v>18280.73745573054</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -6593,19 +6593,19 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>109669.9533460627</v>
+        <v>18280.90307779507</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -6617,19 +6617,19 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>151973.8259192123</v>
+        <v>18284.89059507671</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -6641,19 +6641,19 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>153354.7555114876</v>
+        <v>18285.14164784893</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>154735.8625965571</v>
+        <v>18286.92315309997</v>
       </c>
     </row>
     <row r="277">
@@ -6673,11 +6673,11 @@
         <v>1.7</v>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -6689,19 +6689,19 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>156117.1424637933</v>
+        <v>18288.93968053313</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -6713,19 +6713,19 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>157498.5905672409</v>
+        <v>18292.10686524323</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -6737,19 +6737,19 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>158880.2025185068</v>
+        <v>18292.19199386489</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -6761,19 +6761,19 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>160261.974080015</v>
+        <v>18292.3623480227</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -6785,19 +6785,19 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>161643.9011586036</v>
+        <v>18295.46270792369</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -6809,19 +6809,19 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>163025.979799444</v>
+        <v>18296.73366217576</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6833,19 +6833,19 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>164408.2061802643</v>
+        <v>18298.02499295249</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6857,15 +6857,15 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>165790.5766058592</v>
+        <v>18298.28416115064</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -6881,19 +6881,19 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>166008.1684728135</v>
+        <v>18300.68882794657</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -6905,19 +6905,19 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>167173.0875028677</v>
+        <v>18302.96612228397</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -6929,19 +6929,19 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>168555.7354148088</v>
+        <v>18304.16413747579</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6953,19 +6953,19 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>169938.5169973536</v>
+        <v>18307.15360457139</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -6977,15 +6977,15 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>171321.4290138278</v>
+        <v>18307.24187483273</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7001,15 +7001,15 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>222605.1810397785</v>
+        <v>18309.98653842786</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -7025,15 +7025,15 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>279303.7102243549</v>
+        <v>18310.74756697847</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7049,15 +7049,15 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>336052.376509544</v>
+        <v>18312.44939756212</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7073,15 +7073,15 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>392829.4518790793</v>
+        <v>18313.86579403375</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -7097,15 +7097,15 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>449624.1742420081</v>
+        <v>18314.67171715304</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7121,15 +7121,15 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>506430.6064558904</v>
+        <v>18316.59684980623</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -7145,19 +7145,19 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>563245.2055197963</v>
+        <v>18316.68708346741</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -7169,19 +7169,19 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>4809081.658350804</v>
+        <v>18319.00860688823</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -7193,19 +7193,19 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>43834713.87996787</v>
+        <v>18321.15395380716</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -7217,19 +7217,19 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>82864987.81373864</v>
+        <v>18323.07471261189</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -7241,19 +7241,19 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>114721805.0188131</v>
+        <v>18324.80438875213</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>137216270.2701026</v>
+        <v>18326.37013999636</v>
       </c>
     </row>
   </sheetData>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7332,16 +7332,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14827.63187322461</v>
+        <v>17356.53104332941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -7353,16 +7353,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14827.76686734109</v>
+        <v>17442.33547700919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -7374,12 +7374,12 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15784.57896915984</v>
+        <v>17617.87565538666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -7395,12 +7395,12 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15784.64512853609</v>
+        <v>17651.48112451832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -7416,12 +7416,12 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15840.09963155231</v>
+        <v>17660.53364169616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -7437,12 +7437,12 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15840.57461877988</v>
+        <v>17703.89648441661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -7458,16 +7458,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16586.80849606901</v>
+        <v>18451.12591668659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -7479,12 +7479,12 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16587.13084876453</v>
+        <v>18526.24866892056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7500,16 +7500,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16630.25714346798</v>
+        <v>18568.0885153583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -7521,16 +7521,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16630.28347127164</v>
+        <v>18697.16905939001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -7542,12 +7542,12 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17241.57555481366</v>
+        <v>18854.24396605242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -7563,12 +7563,12 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17241.65892225591</v>
+        <v>18858.63035632974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -7584,16 +7584,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>17350.29380442367</v>
+        <v>18892.75457403157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -7605,12 +7605,12 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17350.39894824394</v>
+        <v>18935.17041567928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7626,12 +7626,12 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17368.32348835662</v>
+        <v>19049.41224510183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7647,16 +7647,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17368.69385208925</v>
+        <v>19190.2277256753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -7668,16 +7668,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17399.58468832621</v>
+        <v>19258.14282070128</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -7689,12 +7689,12 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>17399.58509027191</v>
+        <v>19402.40433860008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -7710,12 +7710,12 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17472.8033809658</v>
+        <v>19416.57479985113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -7731,12 +7731,12 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17472.80580382158</v>
+        <v>19606.66571826017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -7752,16 +7752,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17680.6978487582</v>
+        <v>19731.87753509357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -7773,12 +7773,12 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17680.77602086799</v>
+        <v>19774.97729602283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -7794,16 +7794,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17833.86496389965</v>
+        <v>19830.00251199276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -7815,12 +7815,12 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17833.99534884027</v>
+        <v>19893.45502168443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7836,16 +7836,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18211.78486808111</v>
+        <v>20029.20149546115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -7857,16 +7857,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>18212.13386338586</v>
+        <v>20043.34725909344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -7878,12 +7878,12 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18214.28461839681</v>
+        <v>20106.05811588197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7899,16 +7899,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18214.47252317248</v>
+        <v>20106.07069625003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -7920,12 +7920,12 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18272.16300628707</v>
+        <v>20148.28001849741</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>18272.46311534841</v>
+        <v>20201.22364560033</v>
       </c>
     </row>
     <row r="32">
@@ -7962,12 +7962,12 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18380.88521449245</v>
+        <v>20254.9086223976</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -7983,16 +7983,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>18381.29116847622</v>
+        <v>20255.95861578516</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18456.67781340374</v>
+        <v>20487.68111284584</v>
       </c>
     </row>
     <row r="35">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>distance</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -8025,12 +8025,12 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18457.11280533755</v>
+        <v>20633.78973464955</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -8046,12 +8046,12 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18502.15210257592</v>
+        <v>20701.75585919535</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -8067,16 +8067,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18502.50892164167</v>
+        <v>20774.53084213729</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>distance</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -8088,12 +8088,12 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19382.95433317459</v>
+        <v>21229.95506376355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>19383.66788093526</v>
+        <v>21271.39466711424</v>
       </c>
     </row>
   </sheetData>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>14929.18364760034</v>
+        <v>15248.17574846119</v>
       </c>
     </row>
     <row r="3">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15289.5297312781</v>
+        <v>17590.5697720296</v>
       </c>
     </row>
     <row r="4">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18342.5143806792</v>
+        <v>17831.09182040214</v>
       </c>
     </row>
     <row r="5">
@@ -8289,12 +8289,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>lbfgs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18342.57728732679</v>
+        <v>17940.28856926703</v>
       </c>
     </row>
     <row r="6">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18342.57930156118</v>
+        <v>18340.69204565908</v>
       </c>
     </row>
     <row r="7">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18342.60887473663</v>
+        <v>18341.80946203996</v>
       </c>
     </row>
     <row r="8">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -8422,18 +8422,18 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>18342.62444834102</v>
+        <v>18342.18978886313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8458,13 +8458,13 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18342.66316479457</v>
+        <v>18342.3546647312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18342.72482958725</v>
+        <v>18342.45527503651</v>
       </c>
     </row>
     <row r="11">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -8530,23 +8530,23 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18343.04701140556</v>
+        <v>18342.57120783785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tanh</t>
+          <t>relu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>18357.84119829721</v>
+        <v>18342.58045633317</v>
       </c>
     </row>
     <row r="13">
@@ -8577,17 +8577,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lbfgs</t>
+          <t>adam</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>28553.81600059714</v>
+        <v>18342.6283786468</v>
       </c>
     </row>
     <row r="14">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8638,18 +8638,18 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>39643.64216526847</v>
+        <v>19589.53971876953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>relu</t>
+          <t>tanh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>minmax</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>249305.9623250678</v>
+        <v>19677.19299028418</v>
       </c>
     </row>
     <row r="16">
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>572111.0691710871</v>
+        <v>26399.43498627691</v>
       </c>
     </row>
     <row r="17">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>minmax</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1621144.335379135</v>
+        <v>39776.89865390222</v>
       </c>
     </row>
   </sheetData>
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18306.71334093636</v>
+        <v>18303.32213345603</v>
       </c>
     </row>
     <row r="3">
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18306.71334093636</v>
+        <v>18303.32213345603</v>
       </c>
     </row>
     <row r="4">
@@ -8869,7 +8869,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18306.71334093636</v>
+        <v>18303.32213345603</v>
       </c>
     </row>
     <row r="5">
@@ -8893,7 +8893,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18307.30170932548</v>
+        <v>18305.04057448316</v>
       </c>
     </row>
     <row r="6">
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18307.30170932548</v>
+        <v>18305.04057448316</v>
       </c>
     </row>
     <row r="7">
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18307.30170932548</v>
+        <v>18305.04057448316</v>
       </c>
     </row>
     <row r="8">
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18307.89010573692</v>
+        <v>18306.75937342074</v>
       </c>
     </row>
     <row r="9">
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18307.89010573692</v>
+        <v>18306.75937342074</v>
       </c>
     </row>
     <row r="10">
@@ -9013,7 +9013,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18307.89010573692</v>
+        <v>18306.75937342074</v>
       </c>
     </row>
     <row r="11">
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18308.18431445016</v>
+        <v>18307.61890707445</v>
       </c>
     </row>
     <row r="12">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18308.18431445016</v>
+        <v>18307.61890707445</v>
       </c>
     </row>
     <row r="13">
@@ -9085,7 +9085,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18308.18431445016</v>
+        <v>18307.61890707445</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -7446,14 +7446,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38975.66341529859</v>
+        <v>38138.7855310816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>15</v>
       </c>
@@ -7463,18 +7467,14 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39444.26741411</v>
+        <v>38347.43130138954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>15</v>
       </c>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>40437.39418577377</v>
+        <v>38883.17023023334</v>
       </c>
     </row>
     <row r="5">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41351.3079949142</v>
+        <v>40254.65429963594</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31444.18856391787</v>
+        <v>30617.8858491307</v>
       </c>
     </row>
     <row r="3">
@@ -9128,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31567.85395096453</v>
+        <v>31510.53882522551</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31845.82716628566</v>
+        <v>31694.41188994402</v>
       </c>
     </row>
     <row r="5">
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33765.21220861652</v>
+        <v>33630.94346143826</v>
       </c>
     </row>
     <row r="6">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33868.04814957009</v>
+        <v>33878.36375391919</v>
       </c>
     </row>
     <row r="7">
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35030.40972686402</v>
+        <v>33930.43739896564</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38138.7855310816</v>
+        <v>37664.06410467719</v>
       </c>
     </row>
     <row r="3">
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38347.43130138954</v>
+        <v>38738.44583785938</v>
       </c>
     </row>
     <row r="4">
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>38883.17023023334</v>
+        <v>39229.44064888128</v>
       </c>
     </row>
     <row r="5">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40254.65429963594</v>
+        <v>40415.9440021121</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30617.8858491307</v>
+        <v>31193.84613159765</v>
       </c>
     </row>
     <row r="3">
@@ -9128,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31510.53882522551</v>
+        <v>31382.5109262373</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31694.41188994402</v>
+        <v>31709.20889621652</v>
       </c>
     </row>
     <row r="5">
@@ -9166,7 +9166,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33630.94346143826</v>
+        <v>33785.1993596434</v>
       </c>
     </row>
     <row r="6">
@@ -9185,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33878.36375391919</v>
+        <v>33814.36108078439</v>
       </c>
     </row>
     <row r="7">
@@ -9204,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33930.43739896564</v>
+        <v>34091.69721106249</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -58,6 +58,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -73,74 +74,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -478,7 +411,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48871.19624543198</v>
+        <v>48871.19624543202</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +429,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48871.1962454321</v>
+        <v>48871.19624543204</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +443,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48871.19624543512</v>
+        <v>48871.1962454346</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +461,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49292.41029535931</v>
+        <v>49292.41032392419</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +536,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28047.22725745376</v>
+        <v>28047.22725745377</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +560,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28068.11887294055</v>
+        <v>28068.11887294056</v>
       </c>
     </row>
     <row r="4">
@@ -723,7 +656,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28178.10948079788</v>
+        <v>28178.1094807979</v>
       </c>
     </row>
     <row r="8">
@@ -771,7 +704,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>28205.40114471167</v>
+        <v>28205.40114471168</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +752,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>28235.58806258228</v>
+        <v>28235.58806258229</v>
       </c>
     </row>
     <row r="12">
@@ -843,7 +776,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28257.8942910722</v>
+        <v>28257.89429107221</v>
       </c>
     </row>
     <row r="13">
@@ -867,7 +800,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28269.15502592365</v>
+        <v>28269.15502592366</v>
       </c>
     </row>
     <row r="14">
@@ -891,7 +824,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>28306.70107959428</v>
+        <v>28306.70107959429</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +872,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28348.97517906553</v>
+        <v>28348.97517906554</v>
       </c>
     </row>
     <row r="17">
@@ -987,7 +920,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>28396.92605170628</v>
+        <v>28396.92605170629</v>
       </c>
     </row>
     <row r="19">
@@ -1011,7 +944,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28431.98293174079</v>
+        <v>28431.9829317408</v>
       </c>
     </row>
     <row r="20">
@@ -1059,7 +992,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>28451.77331580619</v>
+        <v>28451.7733158062</v>
       </c>
     </row>
     <row r="22">
@@ -1083,7 +1016,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28471.20186317744</v>
+        <v>28471.20186317745</v>
       </c>
     </row>
     <row r="23">
@@ -1107,7 +1040,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28514.46743529899</v>
+        <v>28514.467435299</v>
       </c>
     </row>
     <row r="24">
@@ -1131,7 +1064,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28515.11577725342</v>
+        <v>28515.11577725343</v>
       </c>
     </row>
     <row r="25">
@@ -1179,7 +1112,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>28562.4362436333</v>
+        <v>28562.43624363331</v>
       </c>
     </row>
     <row r="27">
@@ -1227,7 +1160,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>28615.91433731918</v>
+        <v>28615.91433731919</v>
       </c>
     </row>
     <row r="29">
@@ -1251,7 +1184,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>28616.88285617072</v>
+        <v>28616.88285617073</v>
       </c>
     </row>
     <row r="30">
@@ -1299,7 +1232,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>28676.54939413795</v>
+        <v>28676.54939413796</v>
       </c>
     </row>
     <row r="32">
@@ -1323,7 +1256,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>28743.65653075243</v>
+        <v>28743.65653075244</v>
       </c>
     </row>
     <row r="33">
@@ -1347,7 +1280,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>28744.60399441605</v>
+        <v>28744.60399441606</v>
       </c>
     </row>
     <row r="34">
@@ -1371,7 +1304,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>28781.55891991594</v>
+        <v>28781.55891991595</v>
       </c>
     </row>
     <row r="35">
@@ -1443,7 +1376,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>28909.93867275364</v>
+        <v>28909.93867275365</v>
       </c>
     </row>
     <row r="38">
@@ -1491,7 +1424,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>29012.01613259136</v>
+        <v>29012.01613259137</v>
       </c>
     </row>
     <row r="40">
@@ -1515,7 +1448,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>29070.39285277082</v>
+        <v>29070.39285277083</v>
       </c>
     </row>
     <row r="41">
@@ -1539,7 +1472,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>29130.65120398339</v>
+        <v>29130.6512039834</v>
       </c>
     </row>
     <row r="42">
@@ -1587,7 +1520,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>29133.46637826232</v>
+        <v>29133.46637826233</v>
       </c>
     </row>
     <row r="44">
@@ -1659,7 +1592,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>29275.89203784668</v>
+        <v>29275.8920378467</v>
       </c>
     </row>
     <row r="47">
@@ -1683,7 +1616,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>29276.51653752886</v>
+        <v>29276.51653752887</v>
       </c>
     </row>
     <row r="48">
@@ -1707,7 +1640,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>29356.38422195082</v>
+        <v>29356.38422195083</v>
       </c>
     </row>
     <row r="49">
@@ -1731,7 +1664,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>29447.34692322275</v>
+        <v>29447.34692322276</v>
       </c>
     </row>
     <row r="50">
@@ -1923,7 +1856,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>29930.86105165588</v>
+        <v>29930.86105165589</v>
       </c>
     </row>
     <row r="58">
@@ -1995,7 +1928,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>29933.6174660449</v>
+        <v>29933.61746604491</v>
       </c>
     </row>
     <row r="61">
@@ -2019,7 +1952,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>30094.19761841322</v>
+        <v>30094.19761841323</v>
       </c>
     </row>
     <row r="62">
@@ -2187,7 +2120,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30761.02831923076</v>
+        <v>30761.02831923077</v>
       </c>
     </row>
     <row r="69">
@@ -2379,7 +2312,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>32513.78833405797</v>
+        <v>32513.78833405798</v>
       </c>
     </row>
     <row r="77">
@@ -2499,7 +2432,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>36558.91275704366</v>
+        <v>36558.91275704367</v>
       </c>
     </row>
     <row r="82">
@@ -2547,7 +2480,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>37028.45698895315</v>
+        <v>37028.45698895313</v>
       </c>
     </row>
     <row r="84">
@@ -2571,7 +2504,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>37248.19963774404</v>
+        <v>37248.19963774407</v>
       </c>
     </row>
     <row r="85">
@@ -2595,7 +2528,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>37479.24742131651</v>
+        <v>37479.24742131653</v>
       </c>
     </row>
     <row r="86">
@@ -2619,7 +2552,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>37722.63521625992</v>
+        <v>37722.63521625991</v>
       </c>
     </row>
     <row r="87">
@@ -2643,7 +2576,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>37978.19973881627</v>
+        <v>37978.19973881628</v>
       </c>
     </row>
     <row r="88">
@@ -2667,7 +2600,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>37979.55457875325</v>
+        <v>37979.55457875331</v>
       </c>
     </row>
     <row r="89">
@@ -2691,7 +2624,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>38180.62900682498</v>
+        <v>38180.62900682499</v>
       </c>
     </row>
     <row r="90">
@@ -2715,7 +2648,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>38251.39014261474</v>
+        <v>38251.39014261472</v>
       </c>
     </row>
     <row r="91">
@@ -2835,7 +2768,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>38846.62122543864</v>
+        <v>38846.62122543867</v>
       </c>
     </row>
     <row r="96">
@@ -2859,7 +2792,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>39089.10382740397</v>
+        <v>39089.10382740399</v>
       </c>
     </row>
     <row r="97">
@@ -2883,7 +2816,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>39174.28098158046</v>
+        <v>39174.28098158051</v>
       </c>
     </row>
     <row r="98">
@@ -2907,7 +2840,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>39345.65716937991</v>
+        <v>39345.65716937993</v>
       </c>
     </row>
     <row r="99">
@@ -2931,7 +2864,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>39522.16175480282</v>
+        <v>39522.16175480283</v>
       </c>
     </row>
     <row r="100">
@@ -2955,7 +2888,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>39525.60601036808</v>
+        <v>39525.6060103681</v>
       </c>
     </row>
     <row r="101">
@@ -3003,7 +2936,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>39707.82512837352</v>
+        <v>39707.82512837353</v>
       </c>
     </row>
     <row r="103">
@@ -3027,7 +2960,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>39900.87082749646</v>
+        <v>39900.87082749647</v>
       </c>
     </row>
     <row r="104">
@@ -3051,7 +2984,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>39903.07378518595</v>
+        <v>39903.07378518597</v>
       </c>
     </row>
     <row r="105">
@@ -3075,7 +3008,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>39904.17307059006</v>
+        <v>39904.17307059009</v>
       </c>
     </row>
     <row r="106">
@@ -3099,7 +3032,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40101.85443707079</v>
+        <v>40101.8544370708</v>
       </c>
     </row>
     <row r="107">
@@ -3147,7 +3080,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>40311.47224775816</v>
+        <v>40311.47224775817</v>
       </c>
     </row>
     <row r="109">
@@ -3171,7 +3104,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>40314.56684896955</v>
+        <v>40314.56684896967</v>
       </c>
     </row>
     <row r="110">
@@ -3195,7 +3128,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>40530.53001825057</v>
+        <v>40530.5300182506</v>
       </c>
     </row>
     <row r="111">
@@ -3243,7 +3176,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40759.96915471624</v>
+        <v>40759.96915471625</v>
       </c>
     </row>
     <row r="113">
@@ -3267,7 +3200,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40762.84093296405</v>
+        <v>40762.84093296408</v>
       </c>
     </row>
     <row r="114">
@@ -3291,7 +3224,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40880.80212858244</v>
+        <v>40880.80212858245</v>
       </c>
     </row>
     <row r="115">
@@ -3315,7 +3248,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>41000.90178435899</v>
+        <v>41000.901784359</v>
       </c>
     </row>
     <row r="116">
@@ -3339,7 +3272,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>41254.65020359327</v>
+        <v>41254.65020359329</v>
       </c>
     </row>
     <row r="117">
@@ -3363,7 +3296,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>41256.4147470447</v>
+        <v>41256.41474704471</v>
       </c>
     </row>
     <row r="118">
@@ -3387,7 +3320,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>41257.29022547129</v>
+        <v>41257.29022547131</v>
       </c>
     </row>
     <row r="119">
@@ -3411,7 +3344,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>41522.84801158925</v>
+        <v>41522.84801158927</v>
       </c>
     </row>
     <row r="120">
@@ -3435,7 +3368,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>41664.59191292801</v>
+        <v>41664.59191292803</v>
       </c>
     </row>
     <row r="121">
@@ -3459,7 +3392,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>41802.69324089872</v>
+        <v>41802.69324089874</v>
       </c>
     </row>
     <row r="122">
@@ -3483,7 +3416,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>41807.46466344338</v>
+        <v>41807.4646634434</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3440,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>41809.83275530805</v>
+        <v>41809.832755308</v>
       </c>
     </row>
     <row r="124">
@@ -3531,7 +3464,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>41952.21161324761</v>
+        <v>41952.21161324763</v>
       </c>
     </row>
     <row r="125">
@@ -3555,7 +3488,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>42106.74005831934</v>
+        <v>42106.74005831935</v>
       </c>
     </row>
     <row r="126">
@@ -3579,7 +3512,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>42111.07598433988</v>
+        <v>42111.0759843399</v>
       </c>
     </row>
     <row r="127">
@@ -3603,7 +3536,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>42112.50609370896</v>
+        <v>42112.50609370898</v>
       </c>
     </row>
     <row r="128">
@@ -3627,7 +3560,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>42266.7088167066</v>
+        <v>42266.70881670662</v>
       </c>
     </row>
     <row r="129">
@@ -3651,7 +3584,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>42432.65607086133</v>
+        <v>42432.65607086135</v>
       </c>
     </row>
     <row r="130">
@@ -3675,7 +3608,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>42436.70389849861</v>
+        <v>42436.70389849863</v>
       </c>
     </row>
     <row r="131">
@@ -3699,7 +3632,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>42438.70053567944</v>
+        <v>42438.70053567949</v>
       </c>
     </row>
     <row r="132">
@@ -3723,7 +3656,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>42605.18197450334</v>
+        <v>42605.18197450336</v>
       </c>
     </row>
     <row r="133">
@@ -3747,7 +3680,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>42610.35481831271</v>
+        <v>42610.35481831273</v>
       </c>
     </row>
     <row r="134">
@@ -3771,7 +3704,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>42784.91805994082</v>
+        <v>42784.91805994084</v>
       </c>
     </row>
     <row r="135">
@@ -3795,7 +3728,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>42788.65146761524</v>
+        <v>42788.65146761526</v>
       </c>
     </row>
     <row r="136">
@@ -3819,7 +3752,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>42972.63323431753</v>
+        <v>42972.63323431755</v>
       </c>
     </row>
     <row r="137">
@@ -3843,7 +3776,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>43169.24080588189</v>
+        <v>43169.24080588191</v>
       </c>
     </row>
     <row r="138">
@@ -3867,7 +3800,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>43172.65255807369</v>
+        <v>43172.65255807371</v>
       </c>
     </row>
     <row r="139">
@@ -3891,7 +3824,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>43173.77361796163</v>
+        <v>43173.77361796165</v>
       </c>
     </row>
     <row r="140">
@@ -3915,7 +3848,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>43174.33339491871</v>
+        <v>43174.33339491872</v>
       </c>
     </row>
     <row r="141">
@@ -3939,7 +3872,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>43375.70843080634</v>
+        <v>43375.70843080636</v>
       </c>
     </row>
     <row r="142">
@@ -3963,7 +3896,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>43593.40498610504</v>
+        <v>43593.40498610506</v>
       </c>
     </row>
     <row r="143">
@@ -3987,7 +3920,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>43596.73206487506</v>
+        <v>43596.73206487509</v>
       </c>
     </row>
     <row r="144">
@@ -4011,7 +3944,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>43825.41813334785</v>
+        <v>43825.41813334787</v>
       </c>
     </row>
     <row r="145">
@@ -4035,7 +3968,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>43828.6709947827</v>
+        <v>43828.67099478273</v>
       </c>
     </row>
     <row r="146">
@@ -4059,7 +3992,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44071.78144094747</v>
+        <v>44071.78144094749</v>
       </c>
     </row>
     <row r="147">
@@ -4083,7 +4016,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>44073.89997799744</v>
+        <v>44073.89997799746</v>
       </c>
     </row>
     <row r="148">
@@ -4107,7 +4040,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>44074.93561189927</v>
+        <v>44074.93561189922</v>
       </c>
     </row>
     <row r="149">
@@ -4131,7 +4064,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>44335.89034912773</v>
+        <v>44335.89034912776</v>
       </c>
     </row>
     <row r="150">
@@ -4155,7 +4088,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>44621.87769917012</v>
+        <v>44621.87769917014</v>
       </c>
     </row>
     <row r="151">
@@ -4179,7 +4112,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>44623.64109675361</v>
+        <v>44623.64109675363</v>
       </c>
     </row>
     <row r="152">
@@ -4203,7 +4136,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>44624.22128147935</v>
+        <v>44624.22128147937</v>
       </c>
     </row>
     <row r="153">
@@ -4227,7 +4160,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>44935.44432508935</v>
+        <v>44935.44432508938</v>
       </c>
     </row>
     <row r="154">
@@ -4251,7 +4184,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>45285.68672718328</v>
+        <v>45285.68672718332</v>
       </c>
     </row>
     <row r="155">
@@ -4275,7 +4208,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>45287.06602002272</v>
+        <v>45287.06602002276</v>
       </c>
     </row>
     <row r="156">
@@ -4299,7 +4232,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>45287.74717618968</v>
+        <v>45287.74717618978</v>
       </c>
     </row>
     <row r="157">
@@ -4323,7 +4256,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>45689.26979913766</v>
+        <v>45689.26979913768</v>
       </c>
     </row>
     <row r="158">
@@ -4347,7 +4280,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>45690.81790576928</v>
+        <v>45690.81790576931</v>
       </c>
     </row>
     <row r="159">
@@ -4371,7 +4304,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>46184.07453892759</v>
+        <v>46184.07453892761</v>
       </c>
     </row>
     <row r="160">
@@ -4395,7 +4328,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>46185.03299580719</v>
+        <v>46185.03299580723</v>
       </c>
     </row>
     <row r="161">
@@ -4419,7 +4352,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>46894.72163987394</v>
+        <v>46894.72163987396</v>
       </c>
     </row>
     <row r="162">
@@ -4443,7 +4376,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>48623.81223883682</v>
+        <v>48623.81223883681</v>
       </c>
     </row>
     <row r="163">
@@ -4467,7 +4400,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>48634.68362459853</v>
+        <v>48634.68362459849</v>
       </c>
     </row>
     <row r="164">
@@ -4491,7 +4424,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>48645.72636084372</v>
+        <v>48645.7263608438</v>
       </c>
     </row>
     <row r="165">
@@ -4539,7 +4472,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>48677.95901759185</v>
+        <v>48677.95901759194</v>
       </c>
     </row>
     <row r="167">
@@ -4563,7 +4496,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>48698.81326677007</v>
+        <v>48698.81326677011</v>
       </c>
     </row>
     <row r="168">
@@ -4587,7 +4520,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>48719.69365913058</v>
+        <v>48719.69365913055</v>
       </c>
     </row>
     <row r="169">
@@ -4611,7 +4544,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>48740.60186821026</v>
+        <v>48740.60186821027</v>
       </c>
     </row>
     <row r="170">
@@ -4635,7 +4568,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>48750.00461913754</v>
+        <v>48750.00461913757</v>
       </c>
     </row>
     <row r="171">
@@ -4659,7 +4592,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>48758.76923307505</v>
+        <v>48758.76923307506</v>
       </c>
     </row>
     <row r="172">
@@ -4683,7 +4616,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>48767.90846865263</v>
+        <v>48767.90846865268</v>
       </c>
     </row>
     <row r="173">
@@ -4707,7 +4640,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>48777.47026227123</v>
+        <v>48777.47026227129</v>
       </c>
     </row>
     <row r="174">
@@ -4731,7 +4664,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>48787.47048877252</v>
+        <v>48787.47048877254</v>
       </c>
     </row>
     <row r="175">
@@ -4755,7 +4688,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>48797.88861425842</v>
+        <v>48797.88861425844</v>
       </c>
     </row>
     <row r="176">
@@ -4799,7 +4732,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>48809.70484376087</v>
+        <v>48809.70484376088</v>
       </c>
     </row>
     <row r="178">
@@ -4819,7 +4752,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>48812.75792393344</v>
+        <v>48812.75792393342</v>
       </c>
     </row>
     <row r="179">
@@ -4839,7 +4772,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>48815.81339962385</v>
+        <v>48815.81339962389</v>
       </c>
     </row>
     <row r="180">
@@ -4879,7 +4812,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>48821.93153713351</v>
+        <v>48821.93153713353</v>
       </c>
     </row>
     <row r="182">
@@ -4899,7 +4832,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>48824.99419700116</v>
+        <v>48824.99419700122</v>
       </c>
     </row>
     <row r="183">
@@ -4919,7 +4852,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>48828.05925045699</v>
+        <v>48828.05925045704</v>
       </c>
     </row>
     <row r="184">
@@ -4939,7 +4872,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>48831.12669718039</v>
+        <v>48831.1266971804</v>
       </c>
     </row>
     <row r="185">
@@ -4963,7 +4896,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>48831.64765154054</v>
+        <v>48831.6476515406</v>
       </c>
     </row>
     <row r="186">
@@ -4983,7 +4916,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>48834.19653738203</v>
+        <v>48834.19653738209</v>
       </c>
     </row>
     <row r="187">
@@ -5003,7 +4936,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>48837.26877025461</v>
+        <v>48837.26877025455</v>
       </c>
     </row>
     <row r="188">
@@ -5023,7 +4956,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>48840.34339504584</v>
+        <v>48840.34339504587</v>
       </c>
     </row>
     <row r="189">
@@ -5043,7 +4976,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>48843.4204105587</v>
+        <v>48843.42041055865</v>
       </c>
     </row>
     <row r="190">
@@ -5067,7 +5000,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>48845.72337023898</v>
+        <v>48845.723370239</v>
       </c>
     </row>
     <row r="191">
@@ -5087,7 +5020,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>48846.4998170473</v>
+        <v>48846.49981704731</v>
       </c>
     </row>
     <row r="192">
@@ -5107,7 +5040,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>48849.58161504691</v>
+        <v>48849.58161504694</v>
       </c>
     </row>
     <row r="193">
@@ -5131,7 +5064,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>48849.64390232728</v>
+        <v>48849.64390232731</v>
       </c>
     </row>
     <row r="194">
@@ -5151,7 +5084,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>48852.66580318245</v>
+        <v>48852.66580318239</v>
       </c>
     </row>
     <row r="195">
@@ -5195,7 +5128,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>48855.75238097481</v>
+        <v>48855.75238097482</v>
       </c>
     </row>
     <row r="197">
@@ -5219,7 +5152,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>48857.51433129699</v>
+        <v>48857.514331297</v>
       </c>
     </row>
     <row r="198">
@@ -5243,7 +5176,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>48857.62701671276</v>
+        <v>48857.62701671277</v>
       </c>
     </row>
     <row r="199">
@@ -5263,7 +5196,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>48858.84134786957</v>
+        <v>48858.84134786958</v>
       </c>
     </row>
     <row r="200">
@@ -5287,7 +5220,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>48859.48131515855</v>
+        <v>48859.48131515858</v>
       </c>
     </row>
     <row r="201">
@@ -5335,7 +5268,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>48860.98160043218</v>
+        <v>48860.9816004322</v>
       </c>
     </row>
     <row r="203">
@@ -5359,7 +5292,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>48861.69077039745</v>
+        <v>48861.69077039748</v>
       </c>
     </row>
     <row r="204">
@@ -5379,7 +5312,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>48861.93270313048</v>
+        <v>48861.93270313042</v>
       </c>
     </row>
     <row r="205">
@@ -5403,7 +5336,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>48862.40026698034</v>
+        <v>48862.40026698033</v>
       </c>
     </row>
     <row r="206">
@@ -5451,7 +5384,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>48863.82804121597</v>
+        <v>48863.828041216</v>
       </c>
     </row>
     <row r="208">
@@ -5475,7 +5408,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>48864.54287044584</v>
+        <v>48864.54287044583</v>
       </c>
     </row>
     <row r="209">
@@ -5495,7 +5428,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>48865.0264473741</v>
+        <v>48865.02644737406</v>
       </c>
     </row>
     <row r="210">
@@ -5519,7 +5452,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>48865.2614431929</v>
+        <v>48865.26144319287</v>
       </c>
     </row>
     <row r="211">
@@ -5543,7 +5476,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>48865.98608390537</v>
+        <v>48865.98608390542</v>
       </c>
     </row>
     <row r="212">
@@ -5567,7 +5500,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>48866.7189184861</v>
+        <v>48866.71891848611</v>
       </c>
     </row>
     <row r="213">
@@ -5591,7 +5524,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>48867.45183191235</v>
+        <v>48867.45183191234</v>
       </c>
     </row>
     <row r="214">
@@ -5611,7 +5544,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>48868.12257946286</v>
+        <v>48868.12257946288</v>
       </c>
     </row>
     <row r="215">
@@ -5659,7 +5592,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>48868.93495464877</v>
+        <v>48868.93495464883</v>
       </c>
     </row>
     <row r="217">
@@ -5683,7 +5616,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>48869.68394805572</v>
+        <v>48869.6839480558</v>
       </c>
     </row>
     <row r="218">
@@ -5707,7 +5640,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>48870.43721491363</v>
+        <v>48870.4372149136</v>
       </c>
     </row>
     <row r="219">
@@ -5731,7 +5664,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>48871.02755204459</v>
+        <v>48871.02755204464</v>
       </c>
     </row>
     <row r="220">
@@ -5755,7 +5688,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>48873.45596961863</v>
+        <v>48873.45596961867</v>
       </c>
     </row>
     <row r="221">
@@ -5779,7 +5712,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>48876.54624803982</v>
+        <v>48876.54624803981</v>
       </c>
     </row>
     <row r="222">
@@ -5819,7 +5752,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>49506.25077896447</v>
+        <v>49506.25077896452</v>
       </c>
     </row>
     <row r="224">
@@ -5839,7 +5772,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>49506.33750832998</v>
+        <v>49506.33750833001</v>
       </c>
     </row>
     <row r="225">
@@ -5859,7 +5792,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>49736.24997676902</v>
+        <v>49736.24997676903</v>
       </c>
     </row>
     <row r="226">
@@ -5899,7 +5832,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>49888.80553299074</v>
+        <v>49888.80553299079</v>
       </c>
     </row>
     <row r="228">
@@ -5919,7 +5852,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>49888.87368359465</v>
+        <v>49888.87368359471</v>
       </c>
     </row>
     <row r="229">
@@ -5939,7 +5872,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>49889.0100277433</v>
+        <v>49889.01002774332</v>
       </c>
     </row>
     <row r="230">
@@ -5959,7 +5892,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>49998.78499281825</v>
+        <v>49998.78499281831</v>
       </c>
     </row>
     <row r="231">
@@ -5979,7 +5912,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>50080.52352988078</v>
+        <v>50080.5235298808</v>
       </c>
     </row>
     <row r="232">
@@ -5999,7 +5932,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>50080.6900259711</v>
+        <v>50080.69002597107</v>
       </c>
     </row>
     <row r="233">
@@ -6019,7 +5952,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>50081.1895751515</v>
+        <v>50081.18957515149</v>
       </c>
     </row>
     <row r="234">
@@ -6039,7 +5972,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>50145.59252304758</v>
+        <v>50145.59252304768</v>
       </c>
     </row>
     <row r="235">
@@ -6059,7 +5992,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>50196.51564995847</v>
+        <v>50196.51564995854</v>
       </c>
     </row>
     <row r="236">
@@ -6079,7 +6012,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>50196.79216974838</v>
+        <v>50196.79216974836</v>
       </c>
     </row>
     <row r="237">
@@ -6099,7 +6032,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>50197.3452874842</v>
+        <v>50197.34528748424</v>
       </c>
     </row>
     <row r="238">
@@ -6119,7 +6052,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>50239.09316529176</v>
+        <v>50239.09316529177</v>
       </c>
     </row>
     <row r="239">
@@ -6139,7 +6072,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>50239.85721479142</v>
+        <v>50239.8572147915</v>
       </c>
     </row>
     <row r="240">
@@ -6159,7 +6092,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>50274.81845828815</v>
+        <v>50274.81845828814</v>
       </c>
     </row>
     <row r="241">
@@ -6179,7 +6112,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>50275.40832874496</v>
+        <v>50275.408328745</v>
       </c>
     </row>
     <row r="242">
@@ -6199,7 +6132,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50305.58321229229</v>
+        <v>50305.58321229231</v>
       </c>
     </row>
     <row r="243">
@@ -6219,7 +6152,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50330.59325892073</v>
+        <v>50330.59325892078</v>
       </c>
     </row>
     <row r="244">
@@ -6239,7 +6172,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>50330.69602334152</v>
+        <v>50330.69602334149</v>
       </c>
     </row>
     <row r="245">
@@ -6259,7 +6192,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50330.90156220426</v>
+        <v>50330.9015622043</v>
       </c>
     </row>
     <row r="246">
@@ -6279,7 +6212,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>50331.51825896248</v>
+        <v>50331.51825896251</v>
       </c>
     </row>
     <row r="247">
@@ -6299,7 +6232,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50354.05007759432</v>
+        <v>50354.05007759434</v>
       </c>
     </row>
     <row r="248">
@@ -6319,7 +6252,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50373.17124651623</v>
+        <v>50373.17124651624</v>
       </c>
     </row>
     <row r="249">
@@ -6339,7 +6272,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50373.80843082751</v>
+        <v>50373.8084308275</v>
       </c>
     </row>
     <row r="250">
@@ -6359,7 +6292,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50390.41560118299</v>
+        <v>50390.41560118301</v>
       </c>
     </row>
     <row r="251">
@@ -6379,7 +6312,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50391.27654184485</v>
+        <v>50391.27654184483</v>
       </c>
     </row>
     <row r="252">
@@ -6399,7 +6332,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>50405.85140765616</v>
+        <v>50405.85140765615</v>
       </c>
     </row>
     <row r="253">
@@ -6419,7 +6352,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>50406.17804845503</v>
+        <v>50406.17804845506</v>
       </c>
     </row>
     <row r="254">
@@ -6439,7 +6372,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>50406.83142762403</v>
+        <v>50406.83142762411</v>
       </c>
     </row>
     <row r="255">
@@ -6459,7 +6392,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>50420.77158701097</v>
+        <v>50420.77158701098</v>
       </c>
     </row>
     <row r="256">
@@ -6479,7 +6412,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>50432.44776722284</v>
+        <v>50432.44776722287</v>
       </c>
     </row>
     <row r="257">
@@ -6499,7 +6432,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>50432.66991467409</v>
+        <v>50432.66991467408</v>
       </c>
     </row>
     <row r="258">
@@ -6519,7 +6452,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>50433.33644621748</v>
+        <v>50433.33644621752</v>
       </c>
     </row>
     <row r="259">
@@ -6539,7 +6472,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>50444.72029275002</v>
+        <v>50444.72029275005</v>
       </c>
     </row>
     <row r="260">
@@ -6559,7 +6492,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>50454.06631956046</v>
+        <v>50454.06631956044</v>
       </c>
     </row>
     <row r="261">
@@ -6579,7 +6512,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>50454.40499213691</v>
+        <v>50454.40499213689</v>
       </c>
     </row>
     <row r="262">
@@ -6599,7 +6532,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>50455.08243999176</v>
+        <v>50455.08243999177</v>
       </c>
     </row>
     <row r="263">
@@ -6639,7 +6572,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>50472.56068702526</v>
+        <v>50472.56068702523</v>
       </c>
     </row>
     <row r="265">
@@ -6659,7 +6592,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>50487.6080071336</v>
+        <v>50487.60800713365</v>
       </c>
     </row>
     <row r="266">
@@ -6679,7 +6612,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50487.7237490607</v>
+        <v>50487.72374906072</v>
       </c>
     </row>
     <row r="267">
@@ -6699,7 +6632,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>50487.95524475581</v>
+        <v>50487.95524475587</v>
       </c>
     </row>
     <row r="268">
@@ -6719,7 +6652,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>50501.17503544766</v>
+        <v>50501.17503544771</v>
       </c>
     </row>
     <row r="269">
@@ -6739,7 +6672,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>50506.87393600326</v>
+        <v>50506.87393600325</v>
       </c>
     </row>
     <row r="270">
@@ -6759,7 +6692,7 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>50512.29759010938</v>
+        <v>50512.29759010943</v>
       </c>
     </row>
     <row r="271">
@@ -6779,7 +6712,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>50512.65127716726</v>
+        <v>50512.65127716729</v>
       </c>
     </row>
     <row r="272">
@@ -6799,7 +6732,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>50522.47060385872</v>
+        <v>50522.47060385875</v>
       </c>
     </row>
     <row r="273">
@@ -6819,7 +6752,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>50522.70818069332</v>
+        <v>50522.70818069333</v>
       </c>
     </row>
     <row r="274">
@@ -6859,7 +6792,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>50531.59421155182</v>
+        <v>50531.59421155187</v>
       </c>
     </row>
     <row r="276">
@@ -6879,7 +6812,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>50535.42047146213</v>
+        <v>50535.42047146215</v>
       </c>
     </row>
     <row r="277">
@@ -6919,7 +6852,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>50546.22482193114</v>
+        <v>50546.22482193113</v>
       </c>
     </row>
     <row r="279">
@@ -6939,7 +6872,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>50546.34576476762</v>
+        <v>50546.34576476763</v>
       </c>
     </row>
     <row r="280">
@@ -6959,7 +6892,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>50546.58766315414</v>
+        <v>50546.58766315417</v>
       </c>
     </row>
     <row r="281">
@@ -6979,7 +6912,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>50552.97091148287</v>
+        <v>50552.97091148289</v>
       </c>
     </row>
     <row r="282">
@@ -6999,7 +6932,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>50555.68770844512</v>
+        <v>50555.68770844516</v>
       </c>
     </row>
     <row r="283">
@@ -7039,7 +6972,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>50558.75221157004</v>
+        <v>50558.75221157003</v>
       </c>
     </row>
     <row r="285">
@@ -7059,7 +6992,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>50563.76789900374</v>
+        <v>50563.76789900378</v>
       </c>
     </row>
     <row r="286">
@@ -7079,7 +7012,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>50568.45174187645</v>
+        <v>50568.45174187647</v>
       </c>
     </row>
     <row r="287">
@@ -7099,7 +7032,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>50570.82628841423</v>
+        <v>50570.82628841426</v>
       </c>
     </row>
     <row r="288">
@@ -7139,7 +7072,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>50577.04555723938</v>
+        <v>50577.04555723943</v>
       </c>
     </row>
     <row r="290">
@@ -7159,7 +7092,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>50582.56724684417</v>
+        <v>50582.56724684415</v>
       </c>
     </row>
     <row r="291">
@@ -7179,7 +7112,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>50584.14817726918</v>
+        <v>50584.14817726924</v>
       </c>
     </row>
     <row r="292">
@@ -7199,7 +7132,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>50587.50272833369</v>
+        <v>50587.50272833372</v>
       </c>
     </row>
     <row r="293">
@@ -7219,7 +7152,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50590.38679404208</v>
+        <v>50590.38679404209</v>
       </c>
     </row>
     <row r="294">
@@ -7259,7 +7192,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50595.82753819307</v>
+        <v>50595.82753819312</v>
       </c>
     </row>
     <row r="296">
@@ -7279,7 +7212,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50595.93848926794</v>
+        <v>50595.93848926797</v>
       </c>
     </row>
     <row r="297">
@@ -7299,7 +7232,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50600.61456551451</v>
+        <v>50600.61456551454</v>
       </c>
     </row>
     <row r="298">
@@ -7319,7 +7252,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>50604.85924248766</v>
+        <v>50604.85924248768</v>
       </c>
     </row>
     <row r="299">
@@ -7339,7 +7272,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>50608.64897280908</v>
+        <v>50608.64897280907</v>
       </c>
     </row>
     <row r="300">
@@ -7359,7 +7292,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>50612.05331740466</v>
+        <v>50612.05331740469</v>
       </c>
     </row>
     <row r="301">
@@ -7379,7 +7312,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50615.12832927346</v>
+        <v>50615.12832927353</v>
       </c>
     </row>
   </sheetData>
@@ -7446,18 +7379,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>37664.06410467719</v>
+        <v>38127.58363487636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>15</v>
       </c>
@@ -7467,12 +7396,12 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38738.44583785938</v>
+        <v>39138.87645745221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
@@ -7484,14 +7413,18 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39229.44064888128</v>
+        <v>41013.47268592839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
       <c r="C5" t="n">
         <v>15</v>
       </c>
@@ -7501,7 +7434,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40415.9440021121</v>
+        <v>41103.04833100144</v>
       </c>
     </row>
   </sheetData>
@@ -7589,7 +7522,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34133.17503429761</v>
+        <v>34133.17503429762</v>
       </c>
     </row>
     <row r="4">
@@ -7610,7 +7543,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34292.86315417191</v>
+        <v>34292.86315417192</v>
       </c>
     </row>
     <row r="5">
@@ -7631,7 +7564,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34420.04770665281</v>
+        <v>34420.04770665283</v>
       </c>
     </row>
     <row r="6">
@@ -7652,7 +7585,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34478.27029835433</v>
+        <v>34478.27029835435</v>
       </c>
     </row>
     <row r="7">
@@ -7694,7 +7627,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34619.08061795308</v>
+        <v>34619.0806179531</v>
       </c>
     </row>
     <row r="9">
@@ -7715,7 +7648,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34820.78889343506</v>
+        <v>34820.78889343508</v>
       </c>
     </row>
     <row r="10">
@@ -7736,7 +7669,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35042.0987544189</v>
+        <v>35042.09875441891</v>
       </c>
     </row>
     <row r="11">
@@ -7778,7 +7711,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35144.88985910764</v>
+        <v>35144.88985910766</v>
       </c>
     </row>
     <row r="13">
@@ -7799,7 +7732,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35191.91948189725</v>
+        <v>35191.91948189727</v>
       </c>
     </row>
     <row r="14">
@@ -7820,7 +7753,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35230.65999387588</v>
+        <v>35230.65999387589</v>
       </c>
     </row>
     <row r="15">
@@ -7862,7 +7795,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35909.32973605605</v>
+        <v>35909.32973605607</v>
       </c>
     </row>
     <row r="17">
@@ -7883,7 +7816,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36025.27151501396</v>
+        <v>36025.27151501397</v>
       </c>
     </row>
     <row r="18">
@@ -7904,7 +7837,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36114.98207599313</v>
+        <v>36114.98207599315</v>
       </c>
     </row>
     <row r="19">
@@ -7925,7 +7858,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36575.86373570783</v>
+        <v>36575.86373570785</v>
       </c>
     </row>
     <row r="20">
@@ -7946,7 +7879,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36875.33557371929</v>
+        <v>36875.33557371931</v>
       </c>
     </row>
     <row r="21">
@@ -7967,7 +7900,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36884.32689601757</v>
+        <v>36884.32689601758</v>
       </c>
     </row>
     <row r="22">
@@ -7988,7 +7921,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37324.10807364617</v>
+        <v>37324.10807364619</v>
       </c>
     </row>
     <row r="23">
@@ -8009,7 +7942,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37673.05623397124</v>
+        <v>37673.05623397126</v>
       </c>
     </row>
     <row r="24">
@@ -8030,7 +7963,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37793.91708168892</v>
+        <v>37793.91708168895</v>
       </c>
     </row>
     <row r="25">
@@ -8051,7 +7984,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38523.85249836884</v>
+        <v>38523.85249836886</v>
       </c>
     </row>
     <row r="26">
@@ -8072,7 +8005,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39216.38518151857</v>
+        <v>39216.38518151858</v>
       </c>
     </row>
     <row r="27">
@@ -8093,7 +8026,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39773.41866013689</v>
+        <v>39773.41866013691</v>
       </c>
     </row>
     <row r="28">
@@ -8114,7 +8047,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39864.13621313719</v>
+        <v>39864.13621313721</v>
       </c>
     </row>
     <row r="29">
@@ -8135,7 +8068,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>40404.9404437202</v>
+        <v>40404.94044372023</v>
       </c>
     </row>
     <row r="30">
@@ -8156,7 +8089,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40840.08519674537</v>
+        <v>40840.08519674539</v>
       </c>
     </row>
     <row r="31">
@@ -8177,7 +8110,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41831.06485975582</v>
+        <v>41831.06485975585</v>
       </c>
     </row>
     <row r="32">
@@ -8198,7 +8131,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41991.75313157144</v>
+        <v>41991.75313157147</v>
       </c>
     </row>
     <row r="33">
@@ -8219,7 +8152,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42217.8070074708</v>
+        <v>42217.80700747082</v>
       </c>
     </row>
     <row r="34">
@@ -8240,7 +8173,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42586.65503802924</v>
+        <v>42586.65503802925</v>
       </c>
     </row>
     <row r="35">
@@ -8261,7 +8194,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42874.98372231896</v>
+        <v>42874.98372231898</v>
       </c>
     </row>
     <row r="36">
@@ -8282,7 +8215,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42971.21122122814</v>
+        <v>42971.21122122816</v>
       </c>
     </row>
     <row r="37">
@@ -8303,7 +8236,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42981.37204286241</v>
+        <v>42981.37204286244</v>
       </c>
     </row>
     <row r="38">
@@ -8324,7 +8257,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44044.53225786884</v>
+        <v>44044.53225786886</v>
       </c>
     </row>
     <row r="39">
@@ -8345,7 +8278,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44049.67434352594</v>
+        <v>44049.67434352595</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +8351,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35436.09586177427</v>
+        <v>35436.09586177426</v>
       </c>
     </row>
   </sheetData>
@@ -8515,7 +8448,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>27646.81273464491</v>
+        <v>27646.81273464492</v>
       </c>
     </row>
     <row r="3">
@@ -8551,7 +8484,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>27647.00486846996</v>
+        <v>27647.00486846997</v>
       </c>
     </row>
     <row r="4">
@@ -8623,7 +8556,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27652.81472223818</v>
+        <v>27652.81472224246</v>
       </c>
     </row>
     <row r="6">
@@ -8659,7 +8592,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27655.25242106362</v>
+        <v>27655.25242106292</v>
       </c>
     </row>
     <row r="7">
@@ -8695,7 +8628,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>27681.91334241445</v>
+        <v>27681.91334243699</v>
       </c>
     </row>
     <row r="8">
@@ -8731,7 +8664,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27730.86374826047</v>
+        <v>27730.86374826048</v>
       </c>
     </row>
     <row r="9">
@@ -8767,7 +8700,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>28262.81985446589</v>
+        <v>28262.81985477017</v>
       </c>
     </row>
     <row r="10">
@@ -8803,7 +8736,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>30025.48645746997</v>
+        <v>31372.41068573633</v>
       </c>
     </row>
     <row r="11">
@@ -8839,7 +8772,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>33617.08911866674</v>
+        <v>34042.71300257614</v>
       </c>
     </row>
     <row r="12">
@@ -8875,7 +8808,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>35247.97990286242</v>
+        <v>34103.79819018038</v>
       </c>
     </row>
     <row r="13">
@@ -8911,7 +8844,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>36458.55637346413</v>
+        <v>38287.55485423729</v>
       </c>
     </row>
     <row r="14">
@@ -8947,7 +8880,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>41419.67275795194</v>
+        <v>41598.0472169337</v>
       </c>
     </row>
     <row r="15">
@@ -8983,7 +8916,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>45623.29172679084</v>
+        <v>45269.33597282472</v>
       </c>
     </row>
     <row r="16">
@@ -9019,7 +8952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>49063.10757019669</v>
+        <v>49480.39266571088</v>
       </c>
     </row>
     <row r="17">
@@ -9055,7 +8988,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>58846.84965405006</v>
+        <v>58238.90492628535</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9053,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31193.84613159765</v>
+        <v>31354.90653674423</v>
       </c>
     </row>
     <row r="3">
@@ -9128,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9139,7 +9072,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31382.5109262373</v>
+        <v>31488.24450958332</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9091,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31709.20889621652</v>
+        <v>31721.58036541155</v>
       </c>
     </row>
     <row r="5">
@@ -9177,7 +9110,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33785.1993596434</v>
+        <v>33382.54691485431</v>
       </c>
     </row>
     <row r="6">
@@ -9196,7 +9129,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33814.36108078439</v>
+        <v>34031.33116432883</v>
       </c>
     </row>
     <row r="7">
@@ -9215,7 +9148,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34091.69721106249</v>
+        <v>34165.51553438669</v>
       </c>
     </row>
   </sheetData>
@@ -9290,7 +9223,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27612.34172955778</v>
+        <v>27612.34172955779</v>
       </c>
     </row>
     <row r="3">
@@ -9314,7 +9247,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27612.34172955778</v>
+        <v>27612.34172955779</v>
       </c>
     </row>
     <row r="4">
@@ -9338,7 +9271,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>27612.34172955778</v>
+        <v>27612.34172955779</v>
       </c>
     </row>
     <row r="5">
@@ -9362,7 +9295,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>27619.18698795249</v>
+        <v>27619.1869879525</v>
       </c>
     </row>
     <row r="6">
@@ -9386,7 +9319,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>27619.18698795249</v>
+        <v>27619.1869879525</v>
       </c>
     </row>
     <row r="7">
@@ -9410,7 +9343,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>27619.18698795249</v>
+        <v>27619.1869879525</v>
       </c>
     </row>
     <row r="8">
@@ -9434,7 +9367,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>27632.8995964563</v>
+        <v>27632.89959645631</v>
       </c>
     </row>
     <row r="9">
@@ -9458,7 +9391,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>27632.8995964563</v>
+        <v>27632.89959645631</v>
       </c>
     </row>
     <row r="10">
@@ -9482,7 +9415,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27632.8995964563</v>
+        <v>27632.89959645631</v>
       </c>
     </row>
     <row r="11">
@@ -9506,7 +9439,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27646.64162404484</v>
+        <v>27646.64162404485</v>
       </c>
     </row>
     <row r="12">
@@ -9530,7 +9463,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>27646.64162404484</v>
+        <v>27646.64162404485</v>
       </c>
     </row>
     <row r="13">
@@ -9554,7 +9487,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27646.64162404484</v>
+        <v>27646.64162404485</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -7379,14 +7379,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38127.58363487636</v>
+        <v>37982.95572920706</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>15</v>
       </c>
@@ -7396,12 +7400,12 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39138.87645745221</v>
+        <v>38338.1130458722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
@@ -7413,18 +7417,14 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>41013.47268592839</v>
+        <v>39843.35939095584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>15</v>
       </c>
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>41103.04833100144</v>
+        <v>40968.01806245706</v>
       </c>
     </row>
   </sheetData>
@@ -9042,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9053,7 +9053,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31354.90653674423</v>
+        <v>31463.1384101644</v>
       </c>
     </row>
     <row r="3">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31488.24450958332</v>
+        <v>31663.59817178262</v>
       </c>
     </row>
     <row r="4">
@@ -9080,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31721.58036541155</v>
+        <v>31811.99158089697</v>
       </c>
     </row>
     <row r="5">
@@ -9099,7 +9099,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9110,7 +9110,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33382.54691485431</v>
+        <v>33205.62657069669</v>
       </c>
     </row>
     <row r="6">
@@ -9118,7 +9118,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9129,7 +9129,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34031.33116432883</v>
+        <v>33925.99025331762</v>
       </c>
     </row>
     <row r="7">
@@ -9137,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>34165.51553438669</v>
+        <v>33954.58932525773</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -74,6 +73,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,7 +478,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48871.19624543202</v>
+        <v>48871.19624543198</v>
       </c>
     </row>
     <row r="3">
@@ -429,7 +496,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48871.19624543204</v>
+        <v>48871.1962454321</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +510,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48871.1962454346</v>
+        <v>48871.19624543512</v>
       </c>
     </row>
     <row r="5">
@@ -461,7 +528,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49292.41032392419</v>
+        <v>49292.41029535931</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +603,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28047.22725745377</v>
+        <v>28047.22725745376</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +627,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28068.11887294056</v>
+        <v>28068.11887294055</v>
       </c>
     </row>
     <row r="4">
@@ -656,7 +723,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28178.1094807979</v>
+        <v>28178.10948079788</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +771,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>28205.40114471168</v>
+        <v>28205.40114471167</v>
       </c>
     </row>
     <row r="10">
@@ -752,7 +819,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>28235.58806258229</v>
+        <v>28235.58806258228</v>
       </c>
     </row>
     <row r="12">
@@ -776,7 +843,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28257.89429107221</v>
+        <v>28257.8942910722</v>
       </c>
     </row>
     <row r="13">
@@ -800,7 +867,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28269.15502592366</v>
+        <v>28269.15502592365</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +891,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>28306.70107959429</v>
+        <v>28306.70107959428</v>
       </c>
     </row>
     <row r="15">
@@ -872,7 +939,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28348.97517906554</v>
+        <v>28348.97517906553</v>
       </c>
     </row>
     <row r="17">
@@ -920,7 +987,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>28396.92605170629</v>
+        <v>28396.92605170628</v>
       </c>
     </row>
     <row r="19">
@@ -944,7 +1011,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28431.9829317408</v>
+        <v>28431.98293174079</v>
       </c>
     </row>
     <row r="20">
@@ -992,7 +1059,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>28451.7733158062</v>
+        <v>28451.77331580619</v>
       </c>
     </row>
     <row r="22">
@@ -1016,7 +1083,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28471.20186317745</v>
+        <v>28471.20186317744</v>
       </c>
     </row>
     <row r="23">
@@ -1040,7 +1107,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28514.467435299</v>
+        <v>28514.46743529899</v>
       </c>
     </row>
     <row r="24">
@@ -1064,7 +1131,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28515.11577725343</v>
+        <v>28515.11577725342</v>
       </c>
     </row>
     <row r="25">
@@ -1112,7 +1179,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>28562.43624363331</v>
+        <v>28562.4362436333</v>
       </c>
     </row>
     <row r="27">
@@ -1160,7 +1227,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>28615.91433731919</v>
+        <v>28615.91433731918</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1251,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>28616.88285617073</v>
+        <v>28616.88285617072</v>
       </c>
     </row>
     <row r="30">
@@ -1232,7 +1299,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>28676.54939413796</v>
+        <v>28676.54939413795</v>
       </c>
     </row>
     <row r="32">
@@ -1256,7 +1323,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>28743.65653075244</v>
+        <v>28743.65653075243</v>
       </c>
     </row>
     <row r="33">
@@ -1280,7 +1347,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>28744.60399441606</v>
+        <v>28744.60399441605</v>
       </c>
     </row>
     <row r="34">
@@ -1304,7 +1371,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>28781.55891991595</v>
+        <v>28781.55891991594</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1443,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>28909.93867275365</v>
+        <v>28909.93867275364</v>
       </c>
     </row>
     <row r="38">
@@ -1424,7 +1491,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>29012.01613259137</v>
+        <v>29012.01613259136</v>
       </c>
     </row>
     <row r="40">
@@ -1448,7 +1515,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>29070.39285277083</v>
+        <v>29070.39285277082</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1539,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>29130.6512039834</v>
+        <v>29130.65120398339</v>
       </c>
     </row>
     <row r="42">
@@ -1520,7 +1587,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>29133.46637826233</v>
+        <v>29133.46637826232</v>
       </c>
     </row>
     <row r="44">
@@ -1592,7 +1659,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>29275.8920378467</v>
+        <v>29275.89203784668</v>
       </c>
     </row>
     <row r="47">
@@ -1616,7 +1683,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>29276.51653752887</v>
+        <v>29276.51653752886</v>
       </c>
     </row>
     <row r="48">
@@ -1640,7 +1707,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>29356.38422195083</v>
+        <v>29356.38422195082</v>
       </c>
     </row>
     <row r="49">
@@ -1664,7 +1731,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>29447.34692322276</v>
+        <v>29447.34692322275</v>
       </c>
     </row>
     <row r="50">
@@ -1856,7 +1923,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>29930.86105165589</v>
+        <v>29930.86105165588</v>
       </c>
     </row>
     <row r="58">
@@ -1928,7 +1995,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>29933.61746604491</v>
+        <v>29933.6174660449</v>
       </c>
     </row>
     <row r="61">
@@ -1952,7 +2019,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>30094.19761841323</v>
+        <v>30094.19761841322</v>
       </c>
     </row>
     <row r="62">
@@ -2120,7 +2187,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30761.02831923077</v>
+        <v>30761.02831923076</v>
       </c>
     </row>
     <row r="69">
@@ -2312,7 +2379,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>32513.78833405798</v>
+        <v>32513.78833405797</v>
       </c>
     </row>
     <row r="77">
@@ -2432,7 +2499,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>36558.91275704367</v>
+        <v>36558.91275704366</v>
       </c>
     </row>
     <row r="82">
@@ -2480,7 +2547,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>37028.45698895313</v>
+        <v>37028.45698895315</v>
       </c>
     </row>
     <row r="84">
@@ -2504,7 +2571,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>37248.19963774407</v>
+        <v>37248.19963774404</v>
       </c>
     </row>
     <row r="85">
@@ -2528,7 +2595,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>37479.24742131653</v>
+        <v>37479.24742131651</v>
       </c>
     </row>
     <row r="86">
@@ -2552,7 +2619,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>37722.63521625991</v>
+        <v>37722.63521625992</v>
       </c>
     </row>
     <row r="87">
@@ -2576,7 +2643,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>37978.19973881628</v>
+        <v>37978.19973881627</v>
       </c>
     </row>
     <row r="88">
@@ -2600,7 +2667,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>37979.55457875331</v>
+        <v>37979.55457875325</v>
       </c>
     </row>
     <row r="89">
@@ -2624,7 +2691,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>38180.62900682499</v>
+        <v>38180.62900682498</v>
       </c>
     </row>
     <row r="90">
@@ -2648,7 +2715,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>38251.39014261472</v>
+        <v>38251.39014261474</v>
       </c>
     </row>
     <row r="91">
@@ -2768,7 +2835,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>38846.62122543867</v>
+        <v>38846.62122543864</v>
       </c>
     </row>
     <row r="96">
@@ -2792,7 +2859,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>39089.10382740399</v>
+        <v>39089.10382740397</v>
       </c>
     </row>
     <row r="97">
@@ -2816,7 +2883,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>39174.28098158051</v>
+        <v>39174.28098158046</v>
       </c>
     </row>
     <row r="98">
@@ -2840,7 +2907,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>39345.65716937993</v>
+        <v>39345.65716937991</v>
       </c>
     </row>
     <row r="99">
@@ -2864,7 +2931,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>39522.16175480283</v>
+        <v>39522.16175480282</v>
       </c>
     </row>
     <row r="100">
@@ -2888,7 +2955,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>39525.6060103681</v>
+        <v>39525.60601036808</v>
       </c>
     </row>
     <row r="101">
@@ -2936,7 +3003,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>39707.82512837353</v>
+        <v>39707.82512837352</v>
       </c>
     </row>
     <row r="103">
@@ -2960,7 +3027,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>39900.87082749647</v>
+        <v>39900.87082749646</v>
       </c>
     </row>
     <row r="104">
@@ -2984,7 +3051,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>39903.07378518597</v>
+        <v>39903.07378518595</v>
       </c>
     </row>
     <row r="105">
@@ -3008,7 +3075,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>39904.17307059009</v>
+        <v>39904.17307059006</v>
       </c>
     </row>
     <row r="106">
@@ -3032,7 +3099,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40101.8544370708</v>
+        <v>40101.85443707079</v>
       </c>
     </row>
     <row r="107">
@@ -3080,7 +3147,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>40311.47224775817</v>
+        <v>40311.47224775816</v>
       </c>
     </row>
     <row r="109">
@@ -3104,7 +3171,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>40314.56684896967</v>
+        <v>40314.56684896955</v>
       </c>
     </row>
     <row r="110">
@@ -3128,7 +3195,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>40530.5300182506</v>
+        <v>40530.53001825057</v>
       </c>
     </row>
     <row r="111">
@@ -3176,7 +3243,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40759.96915471625</v>
+        <v>40759.96915471624</v>
       </c>
     </row>
     <row r="113">
@@ -3200,7 +3267,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40762.84093296408</v>
+        <v>40762.84093296405</v>
       </c>
     </row>
     <row r="114">
@@ -3224,7 +3291,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40880.80212858245</v>
+        <v>40880.80212858244</v>
       </c>
     </row>
     <row r="115">
@@ -3248,7 +3315,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>41000.901784359</v>
+        <v>41000.90178435899</v>
       </c>
     </row>
     <row r="116">
@@ -3272,7 +3339,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>41254.65020359329</v>
+        <v>41254.65020359327</v>
       </c>
     </row>
     <row r="117">
@@ -3296,7 +3363,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>41256.41474704471</v>
+        <v>41256.4147470447</v>
       </c>
     </row>
     <row r="118">
@@ -3320,7 +3387,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>41257.29022547131</v>
+        <v>41257.29022547129</v>
       </c>
     </row>
     <row r="119">
@@ -3344,7 +3411,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>41522.84801158927</v>
+        <v>41522.84801158925</v>
       </c>
     </row>
     <row r="120">
@@ -3368,7 +3435,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>41664.59191292803</v>
+        <v>41664.59191292801</v>
       </c>
     </row>
     <row r="121">
@@ -3392,7 +3459,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>41802.69324089874</v>
+        <v>41802.69324089872</v>
       </c>
     </row>
     <row r="122">
@@ -3416,7 +3483,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>41807.4646634434</v>
+        <v>41807.46466344338</v>
       </c>
     </row>
     <row r="123">
@@ -3440,7 +3507,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>41809.832755308</v>
+        <v>41809.83275530805</v>
       </c>
     </row>
     <row r="124">
@@ -3464,7 +3531,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>41952.21161324763</v>
+        <v>41952.21161324761</v>
       </c>
     </row>
     <row r="125">
@@ -3488,7 +3555,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>42106.74005831935</v>
+        <v>42106.74005831934</v>
       </c>
     </row>
     <row r="126">
@@ -3512,7 +3579,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>42111.0759843399</v>
+        <v>42111.07598433988</v>
       </c>
     </row>
     <row r="127">
@@ -3536,7 +3603,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>42112.50609370898</v>
+        <v>42112.50609370896</v>
       </c>
     </row>
     <row r="128">
@@ -3560,7 +3627,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>42266.70881670662</v>
+        <v>42266.7088167066</v>
       </c>
     </row>
     <row r="129">
@@ -3584,7 +3651,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>42432.65607086135</v>
+        <v>42432.65607086133</v>
       </c>
     </row>
     <row r="130">
@@ -3608,7 +3675,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>42436.70389849863</v>
+        <v>42436.70389849861</v>
       </c>
     </row>
     <row r="131">
@@ -3632,7 +3699,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>42438.70053567949</v>
+        <v>42438.70053567944</v>
       </c>
     </row>
     <row r="132">
@@ -3656,7 +3723,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>42605.18197450336</v>
+        <v>42605.18197450334</v>
       </c>
     </row>
     <row r="133">
@@ -3680,7 +3747,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>42610.35481831273</v>
+        <v>42610.35481831271</v>
       </c>
     </row>
     <row r="134">
@@ -3704,7 +3771,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>42784.91805994084</v>
+        <v>42784.91805994082</v>
       </c>
     </row>
     <row r="135">
@@ -3728,7 +3795,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>42788.65146761526</v>
+        <v>42788.65146761524</v>
       </c>
     </row>
     <row r="136">
@@ -3752,7 +3819,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>42972.63323431755</v>
+        <v>42972.63323431753</v>
       </c>
     </row>
     <row r="137">
@@ -3776,7 +3843,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>43169.24080588191</v>
+        <v>43169.24080588189</v>
       </c>
     </row>
     <row r="138">
@@ -3800,7 +3867,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>43172.65255807371</v>
+        <v>43172.65255807369</v>
       </c>
     </row>
     <row r="139">
@@ -3824,7 +3891,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>43173.77361796165</v>
+        <v>43173.77361796163</v>
       </c>
     </row>
     <row r="140">
@@ -3848,7 +3915,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>43174.33339491872</v>
+        <v>43174.33339491871</v>
       </c>
     </row>
     <row r="141">
@@ -3872,7 +3939,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>43375.70843080636</v>
+        <v>43375.70843080634</v>
       </c>
     </row>
     <row r="142">
@@ -3896,7 +3963,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>43593.40498610506</v>
+        <v>43593.40498610504</v>
       </c>
     </row>
     <row r="143">
@@ -3920,7 +3987,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>43596.73206487509</v>
+        <v>43596.73206487506</v>
       </c>
     </row>
     <row r="144">
@@ -3944,7 +4011,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>43825.41813334787</v>
+        <v>43825.41813334785</v>
       </c>
     </row>
     <row r="145">
@@ -3968,7 +4035,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>43828.67099478273</v>
+        <v>43828.6709947827</v>
       </c>
     </row>
     <row r="146">
@@ -3992,7 +4059,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44071.78144094749</v>
+        <v>44071.78144094747</v>
       </c>
     </row>
     <row r="147">
@@ -4016,7 +4083,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>44073.89997799746</v>
+        <v>44073.89997799744</v>
       </c>
     </row>
     <row r="148">
@@ -4040,7 +4107,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>44074.93561189922</v>
+        <v>44074.93561189927</v>
       </c>
     </row>
     <row r="149">
@@ -4064,7 +4131,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>44335.89034912776</v>
+        <v>44335.89034912773</v>
       </c>
     </row>
     <row r="150">
@@ -4088,7 +4155,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>44621.87769917014</v>
+        <v>44621.87769917012</v>
       </c>
     </row>
     <row r="151">
@@ -4112,7 +4179,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>44623.64109675363</v>
+        <v>44623.64109675361</v>
       </c>
     </row>
     <row r="152">
@@ -4136,7 +4203,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>44624.22128147937</v>
+        <v>44624.22128147935</v>
       </c>
     </row>
     <row r="153">
@@ -4160,7 +4227,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>44935.44432508938</v>
+        <v>44935.44432508935</v>
       </c>
     </row>
     <row r="154">
@@ -4184,7 +4251,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>45285.68672718332</v>
+        <v>45285.68672718328</v>
       </c>
     </row>
     <row r="155">
@@ -4208,7 +4275,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>45287.06602002276</v>
+        <v>45287.06602002272</v>
       </c>
     </row>
     <row r="156">
@@ -4232,7 +4299,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>45287.74717618978</v>
+        <v>45287.74717618968</v>
       </c>
     </row>
     <row r="157">
@@ -4256,7 +4323,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>45689.26979913768</v>
+        <v>45689.26979913766</v>
       </c>
     </row>
     <row r="158">
@@ -4280,7 +4347,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>45690.81790576931</v>
+        <v>45690.81790576928</v>
       </c>
     </row>
     <row r="159">
@@ -4304,7 +4371,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>46184.07453892761</v>
+        <v>46184.07453892759</v>
       </c>
     </row>
     <row r="160">
@@ -4328,7 +4395,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>46185.03299580723</v>
+        <v>46185.03299580719</v>
       </c>
     </row>
     <row r="161">
@@ -4352,7 +4419,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>46894.72163987396</v>
+        <v>46894.72163987394</v>
       </c>
     </row>
     <row r="162">
@@ -4376,7 +4443,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>48623.81223883681</v>
+        <v>48623.81223883682</v>
       </c>
     </row>
     <row r="163">
@@ -4400,7 +4467,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>48634.68362459849</v>
+        <v>48634.68362459853</v>
       </c>
     </row>
     <row r="164">
@@ -4424,7 +4491,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>48645.7263608438</v>
+        <v>48645.72636084372</v>
       </c>
     </row>
     <row r="165">
@@ -4472,7 +4539,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>48677.95901759194</v>
+        <v>48677.95901759185</v>
       </c>
     </row>
     <row r="167">
@@ -4496,7 +4563,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>48698.81326677011</v>
+        <v>48698.81326677007</v>
       </c>
     </row>
     <row r="168">
@@ -4520,7 +4587,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>48719.69365913055</v>
+        <v>48719.69365913058</v>
       </c>
     </row>
     <row r="169">
@@ -4544,7 +4611,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>48740.60186821027</v>
+        <v>48740.60186821026</v>
       </c>
     </row>
     <row r="170">
@@ -4568,7 +4635,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>48750.00461913757</v>
+        <v>48750.00461913754</v>
       </c>
     </row>
     <row r="171">
@@ -4592,7 +4659,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>48758.76923307506</v>
+        <v>48758.76923307505</v>
       </c>
     </row>
     <row r="172">
@@ -4616,7 +4683,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>48767.90846865268</v>
+        <v>48767.90846865263</v>
       </c>
     </row>
     <row r="173">
@@ -4640,7 +4707,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>48777.47026227129</v>
+        <v>48777.47026227123</v>
       </c>
     </row>
     <row r="174">
@@ -4664,7 +4731,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>48787.47048877254</v>
+        <v>48787.47048877252</v>
       </c>
     </row>
     <row r="175">
@@ -4688,7 +4755,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>48797.88861425844</v>
+        <v>48797.88861425842</v>
       </c>
     </row>
     <row r="176">
@@ -4732,7 +4799,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>48809.70484376088</v>
+        <v>48809.70484376087</v>
       </c>
     </row>
     <row r="178">
@@ -4752,7 +4819,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>48812.75792393342</v>
+        <v>48812.75792393344</v>
       </c>
     </row>
     <row r="179">
@@ -4772,7 +4839,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>48815.81339962389</v>
+        <v>48815.81339962385</v>
       </c>
     </row>
     <row r="180">
@@ -4812,7 +4879,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>48821.93153713353</v>
+        <v>48821.93153713351</v>
       </c>
     </row>
     <row r="182">
@@ -4832,7 +4899,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>48824.99419700122</v>
+        <v>48824.99419700116</v>
       </c>
     </row>
     <row r="183">
@@ -4852,7 +4919,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>48828.05925045704</v>
+        <v>48828.05925045699</v>
       </c>
     </row>
     <row r="184">
@@ -4872,7 +4939,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>48831.1266971804</v>
+        <v>48831.12669718039</v>
       </c>
     </row>
     <row r="185">
@@ -4896,7 +4963,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>48831.6476515406</v>
+        <v>48831.64765154054</v>
       </c>
     </row>
     <row r="186">
@@ -4916,7 +4983,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>48834.19653738209</v>
+        <v>48834.19653738203</v>
       </c>
     </row>
     <row r="187">
@@ -4936,7 +5003,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>48837.26877025455</v>
+        <v>48837.26877025461</v>
       </c>
     </row>
     <row r="188">
@@ -4956,7 +5023,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>48840.34339504587</v>
+        <v>48840.34339504584</v>
       </c>
     </row>
     <row r="189">
@@ -4976,7 +5043,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>48843.42041055865</v>
+        <v>48843.4204105587</v>
       </c>
     </row>
     <row r="190">
@@ -5000,7 +5067,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>48845.723370239</v>
+        <v>48845.72337023898</v>
       </c>
     </row>
     <row r="191">
@@ -5020,7 +5087,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>48846.49981704731</v>
+        <v>48846.4998170473</v>
       </c>
     </row>
     <row r="192">
@@ -5040,7 +5107,7 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>48849.58161504694</v>
+        <v>48849.58161504691</v>
       </c>
     </row>
     <row r="193">
@@ -5064,7 +5131,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>48849.64390232731</v>
+        <v>48849.64390232728</v>
       </c>
     </row>
     <row r="194">
@@ -5084,7 +5151,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>48852.66580318239</v>
+        <v>48852.66580318245</v>
       </c>
     </row>
     <row r="195">
@@ -5128,7 +5195,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>48855.75238097482</v>
+        <v>48855.75238097481</v>
       </c>
     </row>
     <row r="197">
@@ -5152,7 +5219,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>48857.514331297</v>
+        <v>48857.51433129699</v>
       </c>
     </row>
     <row r="198">
@@ -5176,7 +5243,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>48857.62701671277</v>
+        <v>48857.62701671276</v>
       </c>
     </row>
     <row r="199">
@@ -5196,7 +5263,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>48858.84134786958</v>
+        <v>48858.84134786957</v>
       </c>
     </row>
     <row r="200">
@@ -5220,7 +5287,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>48859.48131515858</v>
+        <v>48859.48131515855</v>
       </c>
     </row>
     <row r="201">
@@ -5268,7 +5335,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>48860.9816004322</v>
+        <v>48860.98160043218</v>
       </c>
     </row>
     <row r="203">
@@ -5292,7 +5359,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>48861.69077039748</v>
+        <v>48861.69077039745</v>
       </c>
     </row>
     <row r="204">
@@ -5312,7 +5379,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>48861.93270313042</v>
+        <v>48861.93270313048</v>
       </c>
     </row>
     <row r="205">
@@ -5336,7 +5403,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>48862.40026698033</v>
+        <v>48862.40026698034</v>
       </c>
     </row>
     <row r="206">
@@ -5384,7 +5451,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>48863.828041216</v>
+        <v>48863.82804121597</v>
       </c>
     </row>
     <row r="208">
@@ -5408,7 +5475,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>48864.54287044583</v>
+        <v>48864.54287044584</v>
       </c>
     </row>
     <row r="209">
@@ -5428,7 +5495,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>48865.02644737406</v>
+        <v>48865.0264473741</v>
       </c>
     </row>
     <row r="210">
@@ -5452,7 +5519,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>48865.26144319287</v>
+        <v>48865.2614431929</v>
       </c>
     </row>
     <row r="211">
@@ -5476,7 +5543,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>48865.98608390542</v>
+        <v>48865.98608390537</v>
       </c>
     </row>
     <row r="212">
@@ -5500,7 +5567,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>48866.71891848611</v>
+        <v>48866.7189184861</v>
       </c>
     </row>
     <row r="213">
@@ -5524,7 +5591,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>48867.45183191234</v>
+        <v>48867.45183191235</v>
       </c>
     </row>
     <row r="214">
@@ -5544,7 +5611,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>48868.12257946288</v>
+        <v>48868.12257946286</v>
       </c>
     </row>
     <row r="215">
@@ -5592,7 +5659,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>48868.93495464883</v>
+        <v>48868.93495464877</v>
       </c>
     </row>
     <row r="217">
@@ -5616,7 +5683,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>48869.6839480558</v>
+        <v>48869.68394805572</v>
       </c>
     </row>
     <row r="218">
@@ -5640,7 +5707,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>48870.4372149136</v>
+        <v>48870.43721491363</v>
       </c>
     </row>
     <row r="219">
@@ -5664,7 +5731,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>48871.02755204464</v>
+        <v>48871.02755204459</v>
       </c>
     </row>
     <row r="220">
@@ -5688,7 +5755,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>48873.45596961867</v>
+        <v>48873.45596961863</v>
       </c>
     </row>
     <row r="221">
@@ -5712,7 +5779,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>48876.54624803981</v>
+        <v>48876.54624803982</v>
       </c>
     </row>
     <row r="222">
@@ -5752,7 +5819,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>49506.25077896452</v>
+        <v>49506.25077896447</v>
       </c>
     </row>
     <row r="224">
@@ -5772,7 +5839,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>49506.33750833001</v>
+        <v>49506.33750832998</v>
       </c>
     </row>
     <row r="225">
@@ -5792,7 +5859,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>49736.24997676903</v>
+        <v>49736.24997676902</v>
       </c>
     </row>
     <row r="226">
@@ -5832,7 +5899,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>49888.80553299079</v>
+        <v>49888.80553299074</v>
       </c>
     </row>
     <row r="228">
@@ -5852,7 +5919,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>49888.87368359471</v>
+        <v>49888.87368359465</v>
       </c>
     </row>
     <row r="229">
@@ -5872,7 +5939,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>49889.01002774332</v>
+        <v>49889.0100277433</v>
       </c>
     </row>
     <row r="230">
@@ -5892,7 +5959,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>49998.78499281831</v>
+        <v>49998.78499281825</v>
       </c>
     </row>
     <row r="231">
@@ -5912,7 +5979,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>50080.5235298808</v>
+        <v>50080.52352988078</v>
       </c>
     </row>
     <row r="232">
@@ -5932,7 +5999,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>50080.69002597107</v>
+        <v>50080.6900259711</v>
       </c>
     </row>
     <row r="233">
@@ -5952,7 +6019,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>50081.18957515149</v>
+        <v>50081.1895751515</v>
       </c>
     </row>
     <row r="234">
@@ -5972,7 +6039,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>50145.59252304768</v>
+        <v>50145.59252304758</v>
       </c>
     </row>
     <row r="235">
@@ -5992,7 +6059,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>50196.51564995854</v>
+        <v>50196.51564995847</v>
       </c>
     </row>
     <row r="236">
@@ -6012,7 +6079,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>50196.79216974836</v>
+        <v>50196.79216974838</v>
       </c>
     </row>
     <row r="237">
@@ -6032,7 +6099,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>50197.34528748424</v>
+        <v>50197.3452874842</v>
       </c>
     </row>
     <row r="238">
@@ -6052,7 +6119,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>50239.09316529177</v>
+        <v>50239.09316529176</v>
       </c>
     </row>
     <row r="239">
@@ -6072,7 +6139,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>50239.8572147915</v>
+        <v>50239.85721479142</v>
       </c>
     </row>
     <row r="240">
@@ -6092,7 +6159,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>50274.81845828814</v>
+        <v>50274.81845828815</v>
       </c>
     </row>
     <row r="241">
@@ -6112,7 +6179,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>50275.408328745</v>
+        <v>50275.40832874496</v>
       </c>
     </row>
     <row r="242">
@@ -6132,7 +6199,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>50305.58321229231</v>
+        <v>50305.58321229229</v>
       </c>
     </row>
     <row r="243">
@@ -6152,7 +6219,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>50330.59325892078</v>
+        <v>50330.59325892073</v>
       </c>
     </row>
     <row r="244">
@@ -6172,7 +6239,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>50330.69602334149</v>
+        <v>50330.69602334152</v>
       </c>
     </row>
     <row r="245">
@@ -6192,7 +6259,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>50330.9015622043</v>
+        <v>50330.90156220426</v>
       </c>
     </row>
     <row r="246">
@@ -6212,7 +6279,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>50331.51825896251</v>
+        <v>50331.51825896248</v>
       </c>
     </row>
     <row r="247">
@@ -6232,7 +6299,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50354.05007759434</v>
+        <v>50354.05007759432</v>
       </c>
     </row>
     <row r="248">
@@ -6252,7 +6319,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50373.17124651624</v>
+        <v>50373.17124651623</v>
       </c>
     </row>
     <row r="249">
@@ -6272,7 +6339,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50373.8084308275</v>
+        <v>50373.80843082751</v>
       </c>
     </row>
     <row r="250">
@@ -6292,7 +6359,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>50390.41560118301</v>
+        <v>50390.41560118299</v>
       </c>
     </row>
     <row r="251">
@@ -6312,7 +6379,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>50391.27654184483</v>
+        <v>50391.27654184485</v>
       </c>
     </row>
     <row r="252">
@@ -6332,7 +6399,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>50405.85140765615</v>
+        <v>50405.85140765616</v>
       </c>
     </row>
     <row r="253">
@@ -6352,7 +6419,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>50406.17804845506</v>
+        <v>50406.17804845503</v>
       </c>
     </row>
     <row r="254">
@@ -6372,7 +6439,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>50406.83142762411</v>
+        <v>50406.83142762403</v>
       </c>
     </row>
     <row r="255">
@@ -6392,7 +6459,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>50420.77158701098</v>
+        <v>50420.77158701097</v>
       </c>
     </row>
     <row r="256">
@@ -6412,7 +6479,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>50432.44776722287</v>
+        <v>50432.44776722284</v>
       </c>
     </row>
     <row r="257">
@@ -6432,7 +6499,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>50432.66991467408</v>
+        <v>50432.66991467409</v>
       </c>
     </row>
     <row r="258">
@@ -6452,7 +6519,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>50433.33644621752</v>
+        <v>50433.33644621748</v>
       </c>
     </row>
     <row r="259">
@@ -6472,7 +6539,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>50444.72029275005</v>
+        <v>50444.72029275002</v>
       </c>
     </row>
     <row r="260">
@@ -6492,7 +6559,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>50454.06631956044</v>
+        <v>50454.06631956046</v>
       </c>
     </row>
     <row r="261">
@@ -6512,7 +6579,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>50454.40499213689</v>
+        <v>50454.40499213691</v>
       </c>
     </row>
     <row r="262">
@@ -6532,7 +6599,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>50455.08243999177</v>
+        <v>50455.08243999176</v>
       </c>
     </row>
     <row r="263">
@@ -6572,7 +6639,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>50472.56068702523</v>
+        <v>50472.56068702526</v>
       </c>
     </row>
     <row r="265">
@@ -6592,7 +6659,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>50487.60800713365</v>
+        <v>50487.6080071336</v>
       </c>
     </row>
     <row r="266">
@@ -6612,7 +6679,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>50487.72374906072</v>
+        <v>50487.7237490607</v>
       </c>
     </row>
     <row r="267">
@@ -6632,7 +6699,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>50487.95524475587</v>
+        <v>50487.95524475581</v>
       </c>
     </row>
     <row r="268">
@@ -6652,7 +6719,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>50501.17503544771</v>
+        <v>50501.17503544766</v>
       </c>
     </row>
     <row r="269">
@@ -6672,7 +6739,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>50506.87393600325</v>
+        <v>50506.87393600326</v>
       </c>
     </row>
     <row r="270">
@@ -6692,7 +6759,7 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>50512.29759010943</v>
+        <v>50512.29759010938</v>
       </c>
     </row>
     <row r="271">
@@ -6712,7 +6779,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>50512.65127716729</v>
+        <v>50512.65127716726</v>
       </c>
     </row>
     <row r="272">
@@ -6732,7 +6799,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>50522.47060385875</v>
+        <v>50522.47060385872</v>
       </c>
     </row>
     <row r="273">
@@ -6752,7 +6819,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>50522.70818069333</v>
+        <v>50522.70818069332</v>
       </c>
     </row>
     <row r="274">
@@ -6792,7 +6859,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>50531.59421155187</v>
+        <v>50531.59421155182</v>
       </c>
     </row>
     <row r="276">
@@ -6812,7 +6879,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>50535.42047146215</v>
+        <v>50535.42047146213</v>
       </c>
     </row>
     <row r="277">
@@ -6852,7 +6919,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>50546.22482193113</v>
+        <v>50546.22482193114</v>
       </c>
     </row>
     <row r="279">
@@ -6872,7 +6939,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>50546.34576476763</v>
+        <v>50546.34576476762</v>
       </c>
     </row>
     <row r="280">
@@ -6892,7 +6959,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>50546.58766315417</v>
+        <v>50546.58766315414</v>
       </c>
     </row>
     <row r="281">
@@ -6912,7 +6979,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>50552.97091148289</v>
+        <v>50552.97091148287</v>
       </c>
     </row>
     <row r="282">
@@ -6932,7 +6999,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>50555.68770844516</v>
+        <v>50555.68770844512</v>
       </c>
     </row>
     <row r="283">
@@ -6972,7 +7039,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>50558.75221157003</v>
+        <v>50558.75221157004</v>
       </c>
     </row>
     <row r="285">
@@ -6992,7 +7059,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>50563.76789900378</v>
+        <v>50563.76789900374</v>
       </c>
     </row>
     <row r="286">
@@ -7012,7 +7079,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>50568.45174187647</v>
+        <v>50568.45174187645</v>
       </c>
     </row>
     <row r="287">
@@ -7032,7 +7099,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>50570.82628841426</v>
+        <v>50570.82628841423</v>
       </c>
     </row>
     <row r="288">
@@ -7072,7 +7139,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>50577.04555723943</v>
+        <v>50577.04555723938</v>
       </c>
     </row>
     <row r="290">
@@ -7092,7 +7159,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>50582.56724684415</v>
+        <v>50582.56724684417</v>
       </c>
     </row>
     <row r="291">
@@ -7112,7 +7179,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>50584.14817726924</v>
+        <v>50584.14817726918</v>
       </c>
     </row>
     <row r="292">
@@ -7132,7 +7199,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>50587.50272833372</v>
+        <v>50587.50272833369</v>
       </c>
     </row>
     <row r="293">
@@ -7152,7 +7219,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>50590.38679404209</v>
+        <v>50590.38679404208</v>
       </c>
     </row>
     <row r="294">
@@ -7192,7 +7259,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>50595.82753819312</v>
+        <v>50595.82753819307</v>
       </c>
     </row>
     <row r="296">
@@ -7212,7 +7279,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>50595.93848926797</v>
+        <v>50595.93848926794</v>
       </c>
     </row>
     <row r="297">
@@ -7232,7 +7299,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>50600.61456551454</v>
+        <v>50600.61456551451</v>
       </c>
     </row>
     <row r="298">
@@ -7252,7 +7319,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>50604.85924248768</v>
+        <v>50604.85924248766</v>
       </c>
     </row>
     <row r="299">
@@ -7272,7 +7339,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>50608.64897280907</v>
+        <v>50608.64897280908</v>
       </c>
     </row>
     <row r="300">
@@ -7292,7 +7359,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>50612.05331740469</v>
+        <v>50612.05331740466</v>
       </c>
     </row>
     <row r="301">
@@ -7312,7 +7379,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>50615.12832927353</v>
+        <v>50615.12832927346</v>
       </c>
     </row>
   </sheetData>
@@ -7363,7 +7430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7379,12 +7446,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>37982.95572920706</v>
+        <v>38177.69204657705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7400,7 +7467,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38338.1130458722</v>
+        <v>38692.54967628467</v>
       </c>
     </row>
     <row r="4">
@@ -7417,7 +7484,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39843.35939095584</v>
+        <v>39174.71541913792</v>
       </c>
     </row>
     <row r="5">
@@ -7434,7 +7501,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40968.01806245706</v>
+        <v>40323.99407210176</v>
       </c>
     </row>
   </sheetData>
@@ -7522,7 +7589,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34133.17503429762</v>
+        <v>34133.17503429761</v>
       </c>
     </row>
     <row r="4">
@@ -7543,7 +7610,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34292.86315417192</v>
+        <v>34292.86315417191</v>
       </c>
     </row>
     <row r="5">
@@ -7564,7 +7631,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34420.04770665283</v>
+        <v>34420.04770665281</v>
       </c>
     </row>
     <row r="6">
@@ -7585,7 +7652,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>34478.27029835435</v>
+        <v>34478.27029835433</v>
       </c>
     </row>
     <row r="7">
@@ -7627,7 +7694,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>34619.0806179531</v>
+        <v>34619.08061795308</v>
       </c>
     </row>
     <row r="9">
@@ -7648,7 +7715,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34820.78889343508</v>
+        <v>34820.78889343506</v>
       </c>
     </row>
     <row r="10">
@@ -7669,7 +7736,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35042.09875441891</v>
+        <v>35042.0987544189</v>
       </c>
     </row>
     <row r="11">
@@ -7711,7 +7778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35144.88985910766</v>
+        <v>35144.88985910764</v>
       </c>
     </row>
     <row r="13">
@@ -7732,7 +7799,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35191.91948189727</v>
+        <v>35191.91948189725</v>
       </c>
     </row>
     <row r="14">
@@ -7753,7 +7820,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35230.65999387589</v>
+        <v>35230.65999387588</v>
       </c>
     </row>
     <row r="15">
@@ -7795,7 +7862,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35909.32973605607</v>
+        <v>35909.32973605605</v>
       </c>
     </row>
     <row r="17">
@@ -7816,7 +7883,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36025.27151501397</v>
+        <v>36025.27151501396</v>
       </c>
     </row>
     <row r="18">
@@ -7837,7 +7904,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36114.98207599315</v>
+        <v>36114.98207599313</v>
       </c>
     </row>
     <row r="19">
@@ -7858,7 +7925,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36575.86373570785</v>
+        <v>36575.86373570783</v>
       </c>
     </row>
     <row r="20">
@@ -7879,7 +7946,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36875.33557371931</v>
+        <v>36875.33557371929</v>
       </c>
     </row>
     <row r="21">
@@ -7900,7 +7967,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36884.32689601758</v>
+        <v>36884.32689601757</v>
       </c>
     </row>
     <row r="22">
@@ -7921,7 +7988,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>37324.10807364619</v>
+        <v>37324.10807364617</v>
       </c>
     </row>
     <row r="23">
@@ -7942,7 +8009,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37673.05623397126</v>
+        <v>37673.05623397124</v>
       </c>
     </row>
     <row r="24">
@@ -7963,7 +8030,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37793.91708168895</v>
+        <v>37793.91708168892</v>
       </c>
     </row>
     <row r="25">
@@ -7984,7 +8051,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38523.85249836886</v>
+        <v>38523.85249836884</v>
       </c>
     </row>
     <row r="26">
@@ -8005,7 +8072,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39216.38518151858</v>
+        <v>39216.38518151857</v>
       </c>
     </row>
     <row r="27">
@@ -8026,7 +8093,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39773.41866013691</v>
+        <v>39773.41866013689</v>
       </c>
     </row>
     <row r="28">
@@ -8047,7 +8114,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39864.13621313721</v>
+        <v>39864.13621313719</v>
       </c>
     </row>
     <row r="29">
@@ -8068,7 +8135,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>40404.94044372023</v>
+        <v>40404.9404437202</v>
       </c>
     </row>
     <row r="30">
@@ -8089,7 +8156,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40840.08519674539</v>
+        <v>40840.08519674537</v>
       </c>
     </row>
     <row r="31">
@@ -8110,7 +8177,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41831.06485975585</v>
+        <v>41831.06485975582</v>
       </c>
     </row>
     <row r="32">
@@ -8131,7 +8198,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>41991.75313157147</v>
+        <v>41991.75313157144</v>
       </c>
     </row>
     <row r="33">
@@ -8152,7 +8219,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42217.80700747082</v>
+        <v>42217.8070074708</v>
       </c>
     </row>
     <row r="34">
@@ -8173,7 +8240,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42586.65503802925</v>
+        <v>42586.65503802924</v>
       </c>
     </row>
     <row r="35">
@@ -8194,7 +8261,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42874.98372231898</v>
+        <v>42874.98372231896</v>
       </c>
     </row>
     <row r="36">
@@ -8215,7 +8282,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42971.21122122816</v>
+        <v>42971.21122122814</v>
       </c>
     </row>
     <row r="37">
@@ -8236,7 +8303,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42981.37204286244</v>
+        <v>42981.37204286241</v>
       </c>
     </row>
     <row r="38">
@@ -8257,7 +8324,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44044.53225786886</v>
+        <v>44044.53225786884</v>
       </c>
     </row>
     <row r="39">
@@ -8278,7 +8345,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44049.67434352595</v>
+        <v>44049.67434352594</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +8418,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35436.09586177426</v>
+        <v>35436.09586177427</v>
       </c>
     </row>
   </sheetData>
@@ -8448,7 +8515,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>27646.81273464492</v>
+        <v>27646.81273464491</v>
       </c>
     </row>
     <row r="3">
@@ -8484,7 +8551,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>27647.00486846997</v>
+        <v>27647.00486846996</v>
       </c>
     </row>
     <row r="4">
@@ -8556,7 +8623,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27652.81472224246</v>
+        <v>27652.81472223818</v>
       </c>
     </row>
     <row r="6">
@@ -8592,7 +8659,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27655.25242106292</v>
+        <v>27655.25242106362</v>
       </c>
     </row>
     <row r="7">
@@ -8628,7 +8695,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>27681.91334243699</v>
+        <v>27681.91334241445</v>
       </c>
     </row>
     <row r="8">
@@ -8664,7 +8731,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27730.86374826048</v>
+        <v>27730.86374826047</v>
       </c>
     </row>
     <row r="9">
@@ -8700,7 +8767,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>28262.81985477017</v>
+        <v>28262.81985446589</v>
       </c>
     </row>
     <row r="10">
@@ -8736,7 +8803,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>31372.41068573633</v>
+        <v>30025.48645746997</v>
       </c>
     </row>
     <row r="11">
@@ -8772,7 +8839,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>34042.71300257614</v>
+        <v>33617.08911866674</v>
       </c>
     </row>
     <row r="12">
@@ -8808,7 +8875,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>34103.79819018038</v>
+        <v>35247.97990286242</v>
       </c>
     </row>
     <row r="13">
@@ -8844,7 +8911,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>38287.55485423729</v>
+        <v>36458.55637346413</v>
       </c>
     </row>
     <row r="14">
@@ -8880,7 +8947,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>41598.0472169337</v>
+        <v>41419.67275795194</v>
       </c>
     </row>
     <row r="15">
@@ -8916,7 +8983,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>45269.33597282472</v>
+        <v>45623.29172679084</v>
       </c>
     </row>
     <row r="16">
@@ -8952,7 +9019,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>49480.39266571088</v>
+        <v>49063.10757019669</v>
       </c>
     </row>
     <row r="17">
@@ -8988,7 +9055,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>58238.90492628535</v>
+        <v>58846.84965405006</v>
       </c>
     </row>
   </sheetData>
@@ -9042,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9053,7 +9120,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31463.1384101644</v>
+        <v>31346.66313509358</v>
       </c>
     </row>
     <row r="3">
@@ -9061,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9072,7 +9139,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31663.59817178262</v>
+        <v>31561.39107577404</v>
       </c>
     </row>
     <row r="4">
@@ -9091,7 +9158,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31811.99158089697</v>
+        <v>31720.01408785756</v>
       </c>
     </row>
     <row r="5">
@@ -9099,7 +9166,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9110,7 +9177,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33205.62657069669</v>
+        <v>33325.21276603295</v>
       </c>
     </row>
     <row r="6">
@@ -9118,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9129,7 +9196,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33925.99025331762</v>
+        <v>33515.07076398424</v>
       </c>
     </row>
     <row r="7">
@@ -9137,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9148,7 +9215,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33954.58932525773</v>
+        <v>33791.07823752039</v>
       </c>
     </row>
   </sheetData>
@@ -9223,7 +9290,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>27612.34172955779</v>
+        <v>27612.34172955778</v>
       </c>
     </row>
     <row r="3">
@@ -9247,7 +9314,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27612.34172955779</v>
+        <v>27612.34172955778</v>
       </c>
     </row>
     <row r="4">
@@ -9271,7 +9338,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>27612.34172955779</v>
+        <v>27612.34172955778</v>
       </c>
     </row>
     <row r="5">
@@ -9295,7 +9362,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>27619.1869879525</v>
+        <v>27619.18698795249</v>
       </c>
     </row>
     <row r="6">
@@ -9319,7 +9386,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>27619.1869879525</v>
+        <v>27619.18698795249</v>
       </c>
     </row>
     <row r="7">
@@ -9343,7 +9410,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>27619.1869879525</v>
+        <v>27619.18698795249</v>
       </c>
     </row>
     <row r="8">
@@ -9367,7 +9434,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>27632.89959645631</v>
+        <v>27632.8995964563</v>
       </c>
     </row>
     <row r="9">
@@ -9391,7 +9458,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>27632.89959645631</v>
+        <v>27632.8995964563</v>
       </c>
     </row>
     <row r="10">
@@ -9415,7 +9482,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27632.89959645631</v>
+        <v>27632.8995964563</v>
       </c>
     </row>
     <row r="11">
@@ -9439,7 +9506,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27646.64162404485</v>
+        <v>27646.64162404484</v>
       </c>
     </row>
     <row r="12">
@@ -9463,7 +9530,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>27646.64162404485</v>
+        <v>27646.64162404484</v>
       </c>
     </row>
     <row r="13">
@@ -9487,7 +9554,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27646.64162404485</v>
+        <v>27646.64162404484</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -7430,7 +7430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -7446,12 +7446,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38177.69204657705</v>
+        <v>36144.33355865628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>38692.54967628467</v>
+        <v>37068.36839505733</v>
       </c>
     </row>
     <row r="4">
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39174.71541913792</v>
+        <v>39247.97326557898</v>
       </c>
     </row>
     <row r="5">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40323.99407210176</v>
+        <v>40648.55164649006</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31346.66313509358</v>
+        <v>31062.6085827574</v>
       </c>
     </row>
     <row r="3">
@@ -9128,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31561.39107577404</v>
+        <v>31339.59596572847</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31720.01408785756</v>
+        <v>31448.26333870112</v>
       </c>
     </row>
     <row r="5">
@@ -9166,7 +9166,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33325.21276603295</v>
+        <v>33814.41659628114</v>
       </c>
     </row>
     <row r="6">
@@ -9185,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33515.07076398424</v>
+        <v>33901.91212439902</v>
       </c>
     </row>
     <row r="7">
@@ -9204,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33791.07823752039</v>
+        <v>33965.27662726685</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -7432,11 +7432,7 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>15</v>
       </c>
@@ -7446,12 +7442,12 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36144.33355865628</v>
+        <v>38959.34106732667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -7467,14 +7463,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>37068.36839505733</v>
+        <v>39006.14213061547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39247.97326557898</v>
+        <v>39421.71986068214</v>
       </c>
     </row>
     <row r="5">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40648.55164649006</v>
+        <v>40908.91097184666</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31062.6085827574</v>
+        <v>31412.95632449055</v>
       </c>
     </row>
     <row r="3">
@@ -9128,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31339.59596572847</v>
+        <v>31615.69490959946</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31448.26333870112</v>
+        <v>31974.54654688055</v>
       </c>
     </row>
     <row r="5">
@@ -9166,7 +9166,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33814.41659628114</v>
+        <v>33297.63466176079</v>
       </c>
     </row>
     <row r="6">
@@ -9185,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33901.91212439902</v>
+        <v>33513.53384513169</v>
       </c>
     </row>
     <row r="7">
@@ -9204,7 +9204,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33965.27662726685</v>
+        <v>33649.89897605997</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_validation_grids.xlsx
+++ b/examples/eCommerce_validation_grids.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,24 +511,6 @@
       </c>
       <c r="D4" t="n">
         <v>48871.19624543512</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pt</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>15</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>49292.41029535931</v>
       </c>
     </row>
   </sheetData>
@@ -7430,9 +7412,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>15</v>
       </c>
@@ -7442,18 +7428,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38959.34106732667</v>
+        <v>35836.58181258536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>15</v>
       </c>
@@ -7463,12 +7445,12 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>39006.14213061547</v>
+        <v>39353.42519874275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -7484,7 +7466,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>39421.71986068214</v>
+        <v>39558.25778033608</v>
       </c>
     </row>
     <row r="5">
@@ -7501,7 +7483,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40908.91097184666</v>
+        <v>40495.61230759775</v>
       </c>
     </row>
   </sheetData>
@@ -8608,7 +8590,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -8623,7 +8605,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27652.81472223818</v>
+        <v>27652.8607071597</v>
       </c>
     </row>
     <row r="6">
@@ -8644,7 +8626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -8659,7 +8641,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>27655.25242106362</v>
+        <v>27655.2589074661</v>
       </c>
     </row>
     <row r="7">
@@ -8680,7 +8662,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -8695,7 +8677,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>27681.91334241445</v>
+        <v>27682.86710031588</v>
       </c>
     </row>
     <row r="8">
@@ -8752,7 +8734,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -8767,7 +8749,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>28262.81985446589</v>
+        <v>28279.64272473151</v>
       </c>
     </row>
     <row r="10">
@@ -8860,7 +8842,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -8875,7 +8857,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>35247.97990286242</v>
+        <v>34164.35560993079</v>
       </c>
     </row>
     <row r="13">
@@ -8896,7 +8878,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -8911,7 +8893,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>36458.55637346413</v>
+        <v>38951.76954752774</v>
       </c>
     </row>
     <row r="14">
@@ -8994,7 +8976,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(25, 25)</t>
+          <t>(25,)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9004,7 +8986,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -9019,7 +9001,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>49063.10757019669</v>
+        <v>47214.25274088034</v>
       </c>
     </row>
     <row r="17">
@@ -9030,7 +9012,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>(25,)</t>
+          <t>(25, 25)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9040,7 +9022,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -9055,7 +9037,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>58846.84965405006</v>
+        <v>48906.30420049683</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
@@ -9120,7 +9102,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31412.95632449055</v>
+        <v>31328.8991325498</v>
       </c>
     </row>
     <row r="3">
@@ -9139,7 +9121,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31615.69490959946</v>
+        <v>31574.01294566195</v>
       </c>
     </row>
     <row r="4">
@@ -9147,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="n">
         <v>15</v>
@@ -9158,7 +9140,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31974.54654688055</v>
+        <v>31809.99312225618</v>
       </c>
     </row>
     <row r="5">
@@ -9166,7 +9148,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="n">
         <v>15</v>
@@ -9177,7 +9159,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>33297.63466176079</v>
+        <v>33735.68484371291</v>
       </c>
     </row>
     <row r="6">
@@ -9185,7 +9167,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C6" t="n">
         <v>15</v>
@@ -9196,7 +9178,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33513.53384513169</v>
+        <v>33868.45636508017</v>
       </c>
     </row>
     <row r="7">
@@ -9204,7 +9186,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -9215,7 +9197,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33649.89897605997</v>
+        <v>33989.95182033561</v>
       </c>
     </row>
   </sheetData>
